--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Desktop/nachi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/main-fisheries-chile/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Productos en aduana y no SERNAP" sheetId="2" r:id="rId2"/>
+    <sheet name="Pregunta" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -118,8 +119,91 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ignacia Rivera</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ignacia Rivera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Segun nomina de especies 2016
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ignacia Rivera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Producto cuyo peso corresponde al menos en 20% a la especie señalada.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ignacia Rivera:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Animal vivo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="638">
   <si>
     <t>especie_SERNAPESCA</t>
   </si>
@@ -358,9 +442,6 @@
     <t xml:space="preserve">SARDINA ESPAÑOLA                         </t>
   </si>
   <si>
-    <t xml:space="preserve">SARGO                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve">SIERRA                                   </t>
   </si>
   <si>
@@ -613,9 +694,6 @@
     <t xml:space="preserve">RAYA ESPINOSA                            </t>
   </si>
   <si>
-    <t xml:space="preserve">CARACOL TROPHON                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">CAMARON NAVAJA                           </t>
   </si>
   <si>
@@ -640,9 +718,6 @@
     <t xml:space="preserve">QUIMERA NEGRA                            </t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL ALGAS                              </t>
-  </si>
-  <si>
     <t xml:space="preserve">MERLUZA DE TRES ALETAS                   </t>
   </si>
   <si>
@@ -1625,13 +1700,430 @@
   </si>
   <si>
     <t>Strangomera bentincki</t>
+  </si>
+  <si>
+    <t>Lessonia spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212.2130 </t>
+  </si>
+  <si>
+    <t>0302.5990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardinops sagax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARGO                        </t>
+  </si>
+  <si>
+    <t>Anisotremus scapularis</t>
+  </si>
+  <si>
+    <t>Thyrsites atun</t>
+  </si>
+  <si>
+    <t>Hexanchus griseus</t>
+  </si>
+  <si>
+    <t>Deania calcea</t>
+  </si>
+  <si>
+    <t>Isurus oxyrinchus</t>
+  </si>
+  <si>
+    <t>Lamna nasus</t>
+  </si>
+  <si>
+    <t>Mustelus mento</t>
+  </si>
+  <si>
+    <t>Squalus acanthias</t>
+  </si>
+  <si>
+    <t>TRUCHA ARCOIRIS</t>
+  </si>
+  <si>
+    <t>Oncorhynchus mykiss</t>
+  </si>
+  <si>
+    <t>TURBOT</t>
+  </si>
+  <si>
+    <t>Scophtalmus maximus</t>
+  </si>
+  <si>
+    <t>Seriola lalandi</t>
+  </si>
+  <si>
+    <t>Graus nigra</t>
+  </si>
+  <si>
+    <t>VINCIGUERRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinciguerria lucetia pacifici </t>
+  </si>
+  <si>
+    <t>ABALON JAPONES</t>
+  </si>
+  <si>
+    <t>ABALON ROJO</t>
+  </si>
+  <si>
+    <t>Haliotis discus hannai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haliotis rufescens </t>
+  </si>
+  <si>
+    <t>Venus antiqua</t>
+  </si>
+  <si>
+    <t>ALMEJA O TACA</t>
+  </si>
+  <si>
+    <t>Protothaca taca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loligo gahi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thais chocolata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odontocymbiola magellanica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argobuccinum spp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xantochorus cassidiformis </t>
+  </si>
+  <si>
+    <t>CARACOL REAL O GIGANTE O VOLUTA ANGULOSA</t>
+  </si>
+  <si>
+    <t>Zidona dufresnei</t>
+  </si>
+  <si>
+    <t>Tegula atra</t>
+  </si>
+  <si>
+    <t>Chorus giganteus</t>
+  </si>
+  <si>
+    <t>Trophon geversianus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARACOL TROPHON                      </t>
+  </si>
+  <si>
+    <t>Gari solida</t>
+  </si>
+  <si>
+    <t>Ensis macha</t>
+  </si>
+  <si>
+    <t>Dosidicus gigas</t>
+  </si>
+  <si>
+    <t>Tawera gayi</t>
+  </si>
+  <si>
+    <t>Fissurella spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mytilus chilensis </t>
+  </si>
+  <si>
+    <t>Choromytilus chorus</t>
+  </si>
+  <si>
+    <t>Trochita trochiformes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aulacomya ater</t>
+  </si>
+  <si>
+    <t>Fissurella costata</t>
+  </si>
+  <si>
+    <t>Fissurella maxima</t>
+  </si>
+  <si>
+    <t>Fissurella latimarginata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fissurella picta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fissurella cumingi </t>
+  </si>
+  <si>
+    <t>Concholepas concholepas</t>
+  </si>
+  <si>
+    <t>Mesodesma donacium</t>
+  </si>
+  <si>
+    <t>Tagelus dombeii</t>
+  </si>
+  <si>
+    <t>Chlamys vitrea</t>
+  </si>
+  <si>
+    <t>Ostrea chilensis</t>
+  </si>
+  <si>
+    <t>OSTION DEL NORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argopecten purpuratus </t>
+  </si>
+  <si>
+    <t>OSTION PATAGONICO</t>
+  </si>
+  <si>
+    <t>Chlamys patagonica</t>
+  </si>
+  <si>
+    <t>OSTRA DEL PACIFICO</t>
+  </si>
+  <si>
+    <t>Todarodes Pacificus</t>
+  </si>
+  <si>
+    <t>Octopus Crusoe</t>
+  </si>
+  <si>
+    <t>Octopus (vulgaris) mimus</t>
+  </si>
+  <si>
+    <t>Enteroctopus megalocyathus</t>
+  </si>
+  <si>
+    <t>Mulinia edulis</t>
+  </si>
+  <si>
+    <t>Semele solida</t>
+  </si>
+  <si>
+    <t>Heterocarpus reedi</t>
+  </si>
+  <si>
+    <t>Rhynchocinetes typus</t>
+  </si>
+  <si>
+    <t>Campylonotus semistriatus</t>
+  </si>
+  <si>
+    <t>CAMARON DE RIO DEL NORTE</t>
+  </si>
+  <si>
+    <t>Cryphiops caementarius</t>
+  </si>
+  <si>
+    <t>CAMARON ECUATORIANO O PENAEUE</t>
+  </si>
+  <si>
+    <t>Penaeus vannamei</t>
+  </si>
+  <si>
+    <t>Chaceon chilensis</t>
+  </si>
+  <si>
+    <t>Lithodes santolla</t>
+  </si>
+  <si>
+    <t>Lithodes spp.</t>
+  </si>
+  <si>
+    <t>Paralomis granulosa</t>
+  </si>
+  <si>
+    <t>Haliporoides diomedeae</t>
+  </si>
+  <si>
+    <t>JAIBA</t>
+  </si>
+  <si>
+    <t>Cancer spp.</t>
+  </si>
+  <si>
+    <t>Cancer porteri</t>
+  </si>
+  <si>
+    <t>Cancer edwardsi</t>
+  </si>
+  <si>
+    <t>Homalaspis plana</t>
+  </si>
+  <si>
+    <t>Mursia gaudichaudi</t>
+  </si>
+  <si>
+    <t>Cancer setosus</t>
+  </si>
+  <si>
+    <t>Cancer coronatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovalipes trimaculatus </t>
+  </si>
+  <si>
+    <t>Taliepus dentatus</t>
+  </si>
+  <si>
+    <t>Hemigrapsus crenulatus</t>
+  </si>
+  <si>
+    <t>Taliepus marginatus</t>
+  </si>
+  <si>
+    <t>Euphasia superba</t>
+  </si>
+  <si>
+    <t>LANGOSTA DE ISLA DE PASCUA O URA</t>
+  </si>
+  <si>
+    <t>Panulirus pascuensis</t>
+  </si>
+  <si>
+    <t>Jasus frontalis</t>
+  </si>
+  <si>
+    <t>Projasus bahamondei</t>
+  </si>
+  <si>
+    <t>Cervimunida johni</t>
+  </si>
+  <si>
+    <t>Pleuroncodes monodon</t>
+  </si>
+  <si>
+    <t>Munida subrugosa</t>
+  </si>
+  <si>
+    <t>Pleuroncodes sp</t>
+  </si>
+  <si>
+    <t>Medialuna ancietae</t>
+  </si>
+  <si>
+    <t>Thunnus obesus</t>
+  </si>
+  <si>
+    <t>Polyprion oxygeneios</t>
+  </si>
+  <si>
+    <t>Salilota australis</t>
+  </si>
+  <si>
+    <t>Seriolella punctata</t>
+  </si>
+  <si>
+    <t>Coelorhynchus spp</t>
+  </si>
+  <si>
+    <t>Alopias vulpinus</t>
+  </si>
+  <si>
+    <t>Elagatis bipinnulata</t>
+  </si>
+  <si>
+    <t>Austromegabalanus psittacus</t>
+  </si>
+  <si>
+    <t>Gammarus sp</t>
+  </si>
+  <si>
+    <t>Loxechinus albus</t>
+  </si>
+  <si>
+    <t>Athyonidium chilensis</t>
+  </si>
+  <si>
+    <t>Pyura chilensis</t>
+  </si>
+  <si>
+    <t>Chrysaora Plocamia</t>
+  </si>
+  <si>
+    <t>Katsuwonus pelamis</t>
+  </si>
+  <si>
+    <t>Ameiurus melas</t>
+  </si>
+  <si>
+    <t>Nemadactylus gayi</t>
+  </si>
+  <si>
+    <t>Navodon Paschalis</t>
+  </si>
+  <si>
+    <t>Micropogonias manni</t>
+  </si>
+  <si>
+    <t>Dipturus trachyderma</t>
+  </si>
+  <si>
+    <t>Callophyllis variegata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lessonia nigrescens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trachurus murphyi </t>
+  </si>
+  <si>
+    <t>Heteropriacanthus cruentatus</t>
+  </si>
+  <si>
+    <t>Kiphosus sandwicensis / Kiphosus bigibbus</t>
+  </si>
+  <si>
+    <t>Micromesistius australis</t>
+  </si>
+  <si>
+    <t>Hippoglossina macrops</t>
+  </si>
+  <si>
+    <t>Macrourus holotrachys</t>
+  </si>
+  <si>
+    <t>Coelorhynchus chilensis</t>
+  </si>
+  <si>
+    <t>Macrourus carinatus.</t>
+  </si>
+  <si>
+    <t>Champsocephalus gunnari</t>
+  </si>
+  <si>
+    <t>Myliobatis peruvianus</t>
+  </si>
+  <si>
+    <t>Dissostichus mawsoni</t>
+  </si>
+  <si>
+    <t>Merluccius hubbsi</t>
+  </si>
+  <si>
+    <t>Patagonotothen ramsayi</t>
+  </si>
+  <si>
+    <t>Sympterygia brevicaudata</t>
+  </si>
+  <si>
+    <t>Illex argentinus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1673,6 +2165,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1702,7 +2201,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1714,10 +2213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2030,17 +2532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
@@ -2052,36 +2554,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2098,13 +2600,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2118,16 +2620,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2141,16 +2643,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2164,16 +2666,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2187,16 +2689,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2213,13 +2715,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2236,13 +2738,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2259,13 +2761,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2282,13 +2784,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2301,26 +2803,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2328,22 +2830,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,22 +2853,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2374,22 +2876,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2397,22 +2899,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2420,22 +2922,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2443,22 +2945,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2466,13 +2968,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2489,13 +2991,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2509,25 +3011,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2535,13 +3037,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2558,13 +3060,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2581,13 +3083,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2604,13 +3106,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2627,13 +3129,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2650,13 +3152,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2673,13 +3175,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2696,13 +3198,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2719,13 +3221,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2742,13 +3244,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2765,13 +3267,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2788,13 +3290,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2811,36 +3313,36 @@
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B35" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
         <v>240</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" t="s">
-        <v>243</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2854,16 +3356,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2877,16 +3379,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2900,16 +3402,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2923,16 +3425,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2946,16 +3448,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2969,16 +3471,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2992,16 +3494,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3015,16 +3517,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3038,16 +3540,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3061,16 +3563,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3087,13 +3589,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3110,22 +3612,22 @@
         <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3133,22 +3635,22 @@
         <v>18</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3156,13 +3658,13 @@
         <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3179,13 +3681,13 @@
         <v>19</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3202,13 +3704,13 @@
         <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3225,13 +3727,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3248,13 +3750,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3271,13 +3773,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3294,13 +3796,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3317,13 +3819,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3340,22 +3842,22 @@
         <v>21</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3363,10 +3865,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D58" s="6">
         <v>302.9212</v>
@@ -3386,13 +3888,13 @@
         <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3409,13 +3911,13 @@
         <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3432,13 +3934,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C61" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3455,13 +3957,13 @@
         <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3478,13 +3980,13 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -3501,13 +4003,13 @@
         <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -3524,13 +4026,13 @@
         <v>22</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -3547,13 +4049,13 @@
         <v>22</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -3570,22 +4072,22 @@
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3593,10 +4095,10 @@
         <v>24</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D68" s="6">
         <v>302.83120000000002</v>
@@ -3616,10 +4118,10 @@
         <v>24</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D69" s="6">
         <v>302.83109999999999</v>
@@ -3639,10 +4141,10 @@
         <v>24</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D70" s="6">
         <v>302.8313</v>
@@ -3662,10 +4164,10 @@
         <v>24</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D71" s="6">
         <v>302.83190000000002</v>
@@ -3685,13 +4187,13 @@
         <v>24</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3708,13 +4210,13 @@
         <v>24</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3731,13 +4233,13 @@
         <v>24</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3754,13 +4256,13 @@
         <v>24</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3777,13 +4279,13 @@
         <v>24</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C76" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3800,13 +4302,13 @@
         <v>24</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3823,10 +4325,10 @@
         <v>24</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D78" s="6">
         <v>304.92110000000002</v>
@@ -3846,10 +4348,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D79" s="6">
         <v>304.9212</v>
@@ -3869,10 +4371,10 @@
         <v>24</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D80" s="6">
         <v>304.92189999999999</v>
@@ -3892,13 +4394,13 @@
         <v>24</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3915,22 +4417,22 @@
         <v>25</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3938,13 +4440,13 @@
         <v>26</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3961,13 +4463,13 @@
         <v>26</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3984,13 +4486,13 @@
         <v>26</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4007,22 +4509,22 @@
         <v>27</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4030,13 +4532,13 @@
         <v>28</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -4053,13 +4555,13 @@
         <v>28</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -4076,13 +4578,13 @@
         <v>28</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -4099,13 +4601,13 @@
         <v>28</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -4122,13 +4624,13 @@
         <v>28</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -4145,13 +4647,13 @@
         <v>28</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
@@ -4168,13 +4670,13 @@
         <v>28</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E93" s="4">
         <v>1</v>
@@ -4191,13 +4693,13 @@
         <v>28</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E94" s="4">
         <v>1</v>
@@ -4214,13 +4716,13 @@
         <v>28</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E95" s="4">
         <v>1</v>
@@ -4237,13 +4739,13 @@
         <v>28</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
@@ -4260,13 +4762,13 @@
         <v>28</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -4283,13 +4785,13 @@
         <v>28</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -4306,13 +4808,13 @@
         <v>28</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
@@ -4329,13 +4831,13 @@
         <v>28</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -4352,22 +4854,22 @@
         <v>29</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4375,13 +4877,13 @@
         <v>30</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4398,13 +4900,13 @@
         <v>30</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4421,13 +4923,13 @@
         <v>30</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4444,13 +4946,13 @@
         <v>30</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4467,13 +4969,13 @@
         <v>30</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4490,13 +4992,13 @@
         <v>30</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4513,13 +5015,13 @@
         <v>30</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4536,13 +5038,13 @@
         <v>30</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4559,13 +5061,13 @@
         <v>30</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4582,13 +5084,13 @@
         <v>30</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4605,22 +5107,22 @@
         <v>31</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4628,22 +5130,22 @@
         <v>32</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4651,22 +5153,22 @@
         <v>33</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4674,22 +5176,22 @@
         <v>34</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4697,22 +5199,22 @@
         <v>35</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4720,22 +5222,22 @@
         <v>36</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G117" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4743,13 +5245,13 @@
         <v>37</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4766,13 +5268,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4789,13 +5291,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4812,13 +5314,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4835,13 +5337,13 @@
         <v>37</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4858,13 +5360,13 @@
         <v>37</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4881,13 +5383,13 @@
         <v>38</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4904,13 +5406,13 @@
         <v>38</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4927,13 +5429,13 @@
         <v>38</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -4950,13 +5452,13 @@
         <v>38</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -4973,13 +5475,13 @@
         <v>38</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4996,13 +5498,13 @@
         <v>38</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5019,13 +5521,13 @@
         <v>39</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5042,13 +5544,13 @@
         <v>39</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5065,13 +5567,13 @@
         <v>39</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5088,13 +5590,13 @@
         <v>39</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5111,13 +5613,13 @@
         <v>39</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5134,13 +5636,13 @@
         <v>39</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -5157,13 +5659,13 @@
         <v>39</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5180,13 +5682,13 @@
         <v>39</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -5203,13 +5705,13 @@
         <v>40</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -5226,13 +5728,13 @@
         <v>40</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -5249,13 +5751,13 @@
         <v>40</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5272,13 +5774,13 @@
         <v>40</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5295,13 +5797,13 @@
         <v>40</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5318,13 +5820,13 @@
         <v>40</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5341,13 +5843,13 @@
         <v>40</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5364,13 +5866,13 @@
         <v>40</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -5387,13 +5889,13 @@
         <v>40</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -5410,13 +5912,13 @@
         <v>41</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -5433,13 +5935,13 @@
         <v>41</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -5456,13 +5958,13 @@
         <v>41</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -5479,13 +5981,13 @@
         <v>41</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -5502,13 +6004,13 @@
         <v>41</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -5525,13 +6027,13 @@
         <v>41</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -5548,13 +6050,13 @@
         <v>41</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -5571,13 +6073,13 @@
         <v>41</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -5594,13 +6096,13 @@
         <v>42</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5617,13 +6119,13 @@
         <v>42</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5640,13 +6142,13 @@
         <v>43</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5663,13 +6165,13 @@
         <v>43</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5686,22 +6188,22 @@
         <v>44</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -5709,22 +6211,22 @@
         <v>45</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E160" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F160" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G160" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5732,13 +6234,13 @@
         <v>46</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5755,13 +6257,13 @@
         <v>46</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5778,13 +6280,13 @@
         <v>46</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5801,13 +6303,13 @@
         <v>46</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5824,13 +6326,13 @@
         <v>46</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5847,13 +6349,13 @@
         <v>46</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5870,13 +6372,13 @@
         <v>46</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5893,13 +6395,13 @@
         <v>46</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5916,13 +6418,13 @@
         <v>46</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -5939,13 +6441,13 @@
         <v>46</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5962,13 +6464,13 @@
         <v>46</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5985,13 +6487,13 @@
         <v>46</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -6008,13 +6510,13 @@
         <v>46</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6031,13 +6533,13 @@
         <v>46</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6054,13 +6556,13 @@
         <v>46</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6077,13 +6579,13 @@
         <v>46</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6100,13 +6602,13 @@
         <v>46</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -6123,13 +6625,13 @@
         <v>47</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -6146,13 +6648,13 @@
         <v>47</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -6169,13 +6671,13 @@
         <v>47</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -6192,13 +6694,13 @@
         <v>48</v>
       </c>
       <c r="B181" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6215,13 +6717,13 @@
         <v>48</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -6238,22 +6740,22 @@
         <v>49</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E183" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F183" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G183" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6261,22 +6763,22 @@
         <v>50</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F184" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G184" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6284,22 +6786,22 @@
         <v>51</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6307,13 +6809,13 @@
         <v>52</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -6330,13 +6832,13 @@
         <v>52</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -6353,13 +6855,13 @@
         <v>52</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -6376,13 +6878,13 @@
         <v>53</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -6399,13 +6901,13 @@
         <v>53</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -6422,13 +6924,13 @@
         <v>53</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -6445,13 +6947,13 @@
         <v>54</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6468,13 +6970,13 @@
         <v>54</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6491,13 +6993,13 @@
         <v>54</v>
       </c>
       <c r="B194" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -6514,13 +7016,13 @@
         <v>54</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6537,13 +7039,13 @@
         <v>54</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -6560,13 +7062,13 @@
         <v>54</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6583,13 +7085,13 @@
         <v>54</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6606,13 +7108,13 @@
         <v>54</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -6629,13 +7131,13 @@
         <v>54</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -6652,13 +7154,13 @@
         <v>54</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -6675,13 +7177,13 @@
         <v>54</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -6698,13 +7200,13 @@
         <v>54</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -6721,13 +7223,13 @@
         <v>54</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -6744,13 +7246,13 @@
         <v>54</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -6767,13 +7269,13 @@
         <v>55</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -6790,13 +7292,13 @@
         <v>55</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -6813,13 +7315,13 @@
         <v>55</v>
       </c>
       <c r="B208" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -6836,13 +7338,13 @@
         <v>55</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6859,13 +7361,13 @@
         <v>55</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -6882,13 +7384,13 @@
         <v>55</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6905,13 +7407,13 @@
         <v>55</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -6928,13 +7430,13 @@
         <v>55</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -6951,13 +7453,13 @@
         <v>56</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -6974,13 +7476,13 @@
         <v>56</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -6997,13 +7499,13 @@
         <v>56</v>
       </c>
       <c r="B216" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -7020,13 +7522,13 @@
         <v>56</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -7043,13 +7545,13 @@
         <v>56</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -7066,13 +7568,13 @@
         <v>56</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -7089,13 +7591,13 @@
         <v>56</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -7112,13 +7614,13 @@
         <v>56</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -7135,13 +7637,13 @@
         <v>56</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -7158,13 +7660,13 @@
         <v>56</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -7181,22 +7683,22 @@
         <v>57</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E224" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F224" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G224" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -7204,22 +7706,22 @@
         <v>58</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E225" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F225" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G225" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7227,22 +7729,22 @@
         <v>59</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E226" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F226" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G226" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7250,22 +7752,22 @@
         <v>60</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E227" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F227" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G227" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -7273,22 +7775,22 @@
         <v>61</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E228" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F228" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G228" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -7296,22 +7798,22 @@
         <v>62</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E229" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F229" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G229" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7319,13 +7821,13 @@
         <v>63</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -7342,13 +7844,13 @@
         <v>63</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -7365,22 +7867,22 @@
         <v>64</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E232" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F232" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G232" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -7388,22 +7890,22 @@
         <v>65</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E233" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F233" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G233" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7411,22 +7913,22 @@
         <v>66</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E234" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F234" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G234" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7434,22 +7936,22 @@
         <v>67</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E235" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F235" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G235" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7457,22 +7959,22 @@
         <v>68</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E236" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F236" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G236" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7480,13 +7982,13 @@
         <v>69</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -7503,13 +8005,13 @@
         <v>69</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -7526,13 +8028,13 @@
         <v>69</v>
       </c>
       <c r="B239" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -7549,13 +8051,13 @@
         <v>69</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -7572,13 +8074,13 @@
         <v>69</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -7595,13 +8097,13 @@
         <v>69</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -7618,13 +8120,13 @@
         <v>70</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7641,13 +8143,13 @@
         <v>70</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -7664,13 +8166,13 @@
         <v>70</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -7687,13 +8189,13 @@
         <v>70</v>
       </c>
       <c r="B246" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D246" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -7710,13 +8212,13 @@
         <v>70</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -7733,13 +8235,13 @@
         <v>70</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -7756,13 +8258,13 @@
         <v>71</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -7779,13 +8281,13 @@
         <v>71</v>
       </c>
       <c r="B250" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -7802,22 +8304,22 @@
         <v>72</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E251" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F251" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G251" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -7825,22 +8327,22 @@
         <v>73</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E252" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F252" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G252" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -7848,22 +8350,22 @@
         <v>74</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E253" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F253" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G253" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -7871,13 +8373,13 @@
         <v>75</v>
       </c>
       <c r="B254" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D254" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -7894,13 +8396,13 @@
         <v>75</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D255" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -7917,13 +8419,13 @@
         <v>75</v>
       </c>
       <c r="B256" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D256" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -7940,13 +8442,13 @@
         <v>75</v>
       </c>
       <c r="B257" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D257" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -7963,13 +8465,13 @@
         <v>75</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="D258" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -7986,13 +8488,13 @@
         <v>75</v>
       </c>
       <c r="B259" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D259" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -8009,13 +8511,13 @@
         <v>75</v>
       </c>
       <c r="B260" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D260" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -8032,13 +8534,13 @@
         <v>75</v>
       </c>
       <c r="B261" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D261" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -8055,13 +8557,13 @@
         <v>75</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D262" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -8078,13 +8580,13 @@
         <v>75</v>
       </c>
       <c r="B263" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D263" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -8101,13 +8603,13 @@
         <v>75</v>
       </c>
       <c r="B264" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D264" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -8124,13 +8626,13 @@
         <v>75</v>
       </c>
       <c r="B265" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D265" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -8147,13 +8649,13 @@
         <v>75</v>
       </c>
       <c r="B266" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D266" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -8170,13 +8672,13 @@
         <v>75</v>
       </c>
       <c r="B267" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D267" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -8193,13 +8695,13 @@
         <v>75</v>
       </c>
       <c r="B268" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C268" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D268" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -8216,13 +8718,13 @@
         <v>75</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D269" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -8239,13 +8741,13 @@
         <v>75</v>
       </c>
       <c r="B270" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D270" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -8262,13 +8764,13 @@
         <v>75</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D271" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -8285,13 +8787,13 @@
         <v>75</v>
       </c>
       <c r="B272" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C272" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D272" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -8308,13 +8810,13 @@
         <v>75</v>
       </c>
       <c r="B273" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D273" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -8331,13 +8833,13 @@
         <v>75</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C274" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D274" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -8354,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D275" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -8377,13 +8879,13 @@
         <v>75</v>
       </c>
       <c r="B276" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D276" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -8400,13 +8902,13 @@
         <v>75</v>
       </c>
       <c r="B277" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C277" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D277" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -8423,13 +8925,13 @@
         <v>75</v>
       </c>
       <c r="B278" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D278" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -8446,13 +8948,13 @@
         <v>75</v>
       </c>
       <c r="B279" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D279" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -8469,13 +8971,13 @@
         <v>75</v>
       </c>
       <c r="B280" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C280" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D280" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -8492,13 +8994,13 @@
         <v>75</v>
       </c>
       <c r="B281" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C281" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D281" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -8515,13 +9017,13 @@
         <v>75</v>
       </c>
       <c r="B282" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="D282" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -8538,13 +9040,13 @@
         <v>76</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -8561,13 +9063,13 @@
         <v>76</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C284" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -8584,13 +9086,13 @@
         <v>76</v>
       </c>
       <c r="B285" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -8607,13 +9109,13 @@
         <v>77</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -8630,13 +9132,13 @@
         <v>77</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C287" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D287" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -8653,13 +9155,13 @@
         <v>77</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -8671,572 +9173,1061 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>77</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E289" t="s">
+        <v>188</v>
+      </c>
+      <c r="F289" t="s">
+        <v>188</v>
+      </c>
+      <c r="G289" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>503</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="B292" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+      <c r="B293" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+      <c r="B294" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+      <c r="B295" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="B296" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+      <c r="B297" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+      <c r="B298" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D299" s="11"/>
+    </row>
+    <row r="300" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D300" s="11"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+      <c r="B301" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+      <c r="B302" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>518</v>
+      </c>
+      <c r="B303" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>520</v>
+      </c>
+      <c r="B304" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>521</v>
+      </c>
+      <c r="B305" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="B306" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>525</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+      <c r="B308" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+      <c r="B309" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+      <c r="B310" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+      <c r="B311" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>532</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="B313" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="B314" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+      <c r="B315" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>537</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+      <c r="B317" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+      <c r="B318" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+      <c r="B319" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+      <c r="B320" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+      <c r="B321" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+      <c r="B322" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+      <c r="B323" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+      <c r="B324" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+      <c r="B325" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+      <c r="B326" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="B327" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="B328" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+      <c r="B329" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+      <c r="B330" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+      <c r="B331" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+      <c r="B332" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>557</v>
+      </c>
+      <c r="B333" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+      <c r="B334" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>559</v>
+      </c>
+      <c r="B335" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+      <c r="B336" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>561</v>
+      </c>
+      <c r="B337" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+      <c r="B338" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+      <c r="B339" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+      <c r="B340" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B341" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="B342" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>571</v>
+      </c>
+      <c r="B343" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>573</v>
+      </c>
+      <c r="B344" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="B345" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="B346" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="B347" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+      <c r="B348" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>580</v>
+      </c>
+      <c r="B349" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+      <c r="B350" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+      <c r="B351" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+      <c r="B352" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+      <c r="B353" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+      <c r="B354" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+      <c r="B355" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+      <c r="B356" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+      <c r="B357" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+      <c r="B358" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+      <c r="B359" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>593</v>
+      </c>
+      <c r="B360" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+      <c r="B361" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+      <c r="B362" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+      <c r="B363" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+      <c r="B364" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+      <c r="B365" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+      <c r="B366" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+      <c r="B367" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+      <c r="B368" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+      <c r="B369" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+      <c r="B370" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+      <c r="B371" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="B372" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+      <c r="B373" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+      <c r="B374" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="B375" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+      <c r="B376" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+      <c r="B377" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+      <c r="B378" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+      <c r="B379" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+      <c r="B380" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+      <c r="B381" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+      <c r="B382" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+      <c r="B383" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+      <c r="B384" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+      <c r="B385" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+      <c r="B386" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+      <c r="B387" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+      <c r="B388" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+      <c r="B389" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+      <c r="B390" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+      <c r="B391" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+      <c r="B393" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+      <c r="B394" t="s">
+        <v>622</v>
+      </c>
+      <c r="C394" t="s">
+        <v>499</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>166</v>
+      </c>
+      <c r="B395" t="s">
+        <v>622</v>
+      </c>
+      <c r="C395" t="s">
+        <v>499</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+      <c r="B396" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+      <c r="B397" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+      <c r="B398" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+      <c r="B399" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+      <c r="B400" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+      <c r="B401" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+      <c r="B402" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+      <c r="B403" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+      <c r="B404" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+      <c r="B405" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+      <c r="B406" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+      <c r="B407" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+      <c r="B408" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+      <c r="B409" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+      <c r="B410" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+      <c r="B411" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+      <c r="B412" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+      <c r="B413" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+      <c r="B414" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9263,7 +10254,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -9274,65 +10265,135 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="705">
   <si>
     <t>especie_SERNAPESCA</t>
   </si>
@@ -439,9 +439,6 @@
     <t xml:space="preserve">SARDINA COMUN                            </t>
   </si>
   <si>
-    <t xml:space="preserve">SARDINA ESPAÑOLA                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">SIERRA                                   </t>
   </si>
   <si>
@@ -2117,13 +2114,217 @@
   </si>
   <si>
     <t>Illex argentinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARDINA ESPAÑOLA                       </t>
+  </si>
+  <si>
+    <t>0302.4311</t>
+  </si>
+  <si>
+    <t>0302.4312</t>
+  </si>
+  <si>
+    <t>0302.4319</t>
+  </si>
+  <si>
+    <t>esta bajo la especie pero en categiría los demas..</t>
+  </si>
+  <si>
+    <t>0303.5311</t>
+  </si>
+  <si>
+    <t>0303.5312</t>
+  </si>
+  <si>
+    <t>0303.5319</t>
+  </si>
+  <si>
+    <t>0304.4970</t>
+  </si>
+  <si>
+    <t>0304.8971</t>
+  </si>
+  <si>
+    <t>0304.9961</t>
+  </si>
+  <si>
+    <t>0302.8500</t>
+  </si>
+  <si>
+    <t>Sparidae</t>
+  </si>
+  <si>
+    <t>0302.8121</t>
+  </si>
+  <si>
+    <t>0302.9221</t>
+  </si>
+  <si>
+    <t>0303.8121</t>
+  </si>
+  <si>
+    <t>0303.9221</t>
+  </si>
+  <si>
+    <t>0304.4721</t>
+  </si>
+  <si>
+    <t>0304.5621</t>
+  </si>
+  <si>
+    <t>0304.8821</t>
+  </si>
+  <si>
+    <t>0304.9621</t>
+  </si>
+  <si>
+    <t>0305.7121</t>
+  </si>
+  <si>
+    <t>0302.8122</t>
+  </si>
+  <si>
+    <t>0302.9222</t>
+  </si>
+  <si>
+    <t>0303.8122</t>
+  </si>
+  <si>
+    <t>0303.9222</t>
+  </si>
+  <si>
+    <t>0304.4722</t>
+  </si>
+  <si>
+    <t>0304.5622</t>
+  </si>
+  <si>
+    <t>0304.8822</t>
+  </si>
+  <si>
+    <t>0304.9622</t>
+  </si>
+  <si>
+    <t>0305.7122</t>
+  </si>
+  <si>
+    <t>0302.8143</t>
+  </si>
+  <si>
+    <t>0302.9243</t>
+  </si>
+  <si>
+    <t>0303.8143</t>
+  </si>
+  <si>
+    <t>0303.9243</t>
+  </si>
+  <si>
+    <t>0304.4743</t>
+  </si>
+  <si>
+    <t>0304.5643</t>
+  </si>
+  <si>
+    <t>0304.8843</t>
+  </si>
+  <si>
+    <t>0304.9643</t>
+  </si>
+  <si>
+    <t>0305.7143</t>
+  </si>
+  <si>
+    <t>0302.8144</t>
+  </si>
+  <si>
+    <t>0302.9244</t>
+  </si>
+  <si>
+    <t>0303.8144</t>
+  </si>
+  <si>
+    <t>0303.9244</t>
+  </si>
+  <si>
+    <t>0304.4744</t>
+  </si>
+  <si>
+    <t>0304.5644</t>
+  </si>
+  <si>
+    <t>0304.8844</t>
+  </si>
+  <si>
+    <t>0304.9644</t>
+  </si>
+  <si>
+    <t>0305.7144</t>
+  </si>
+  <si>
+    <t>0302.8114</t>
+  </si>
+  <si>
+    <t>0302.9217</t>
+  </si>
+  <si>
+    <t>0303.8117</t>
+  </si>
+  <si>
+    <t>0303.9217</t>
+  </si>
+  <si>
+    <t>0304.4717</t>
+  </si>
+  <si>
+    <t>0304.5617</t>
+  </si>
+  <si>
+    <t>0304.8817</t>
+  </si>
+  <si>
+    <t>0304.9617</t>
+  </si>
+  <si>
+    <t>0305.7117</t>
+  </si>
+  <si>
+    <t>0302.8123</t>
+  </si>
+  <si>
+    <t>Squalus acanthia</t>
+  </si>
+  <si>
+    <t>0302.9223</t>
+  </si>
+  <si>
+    <t>0303.8123</t>
+  </si>
+  <si>
+    <t>0303.9223</t>
+  </si>
+  <si>
+    <t>0304.4723</t>
+  </si>
+  <si>
+    <t>0304.5623</t>
+  </si>
+  <si>
+    <t>0304.8823</t>
+  </si>
+  <si>
+    <t>0304.9623</t>
+  </si>
+  <si>
+    <t>0305.7123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2172,6 +2373,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2201,7 +2407,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2216,6 +2422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2532,11 +2739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B414" sqref="B414"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2554,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2577,13 +2784,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2600,13 +2807,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2620,16 +2827,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2643,16 +2850,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2666,16 +2873,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2689,16 +2896,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2715,13 +2922,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2738,13 +2945,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2761,13 +2968,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2784,13 +2991,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2807,22 +3014,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,22 +3037,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2853,22 +3060,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="s">
         <v>278</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2876,22 +3083,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2899,22 +3106,22 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,22 +3129,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2945,22 +3152,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2968,13 +3175,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2991,13 +3198,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3011,25 +3218,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,13 +3244,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3060,13 +3267,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3083,13 +3290,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3106,13 +3313,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3129,13 +3336,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3152,13 +3359,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3175,13 +3382,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3198,13 +3405,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3221,13 +3428,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3244,13 +3451,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3267,13 +3474,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3290,13 +3497,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3313,13 +3520,13 @@
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3333,16 +3540,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3356,16 +3563,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3379,16 +3586,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" t="s">
-        <v>240</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3402,16 +3609,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" t="s">
-        <v>240</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3425,16 +3632,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" t="s">
-        <v>240</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3448,16 +3655,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C40" t="s">
-        <v>240</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3471,16 +3678,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" t="s">
-        <v>240</v>
-      </c>
       <c r="D41" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3494,16 +3701,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" t="s">
-        <v>240</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3517,16 +3724,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" t="s">
-        <v>240</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3540,16 +3747,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" t="s">
         <v>239</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3563,16 +3770,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3589,13 +3796,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3609,71 +3816,71 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" t="s">
-        <v>188</v>
+        <v>500</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3681,13 +3888,13 @@
         <v>19</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C50" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3701,16 +3908,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3727,13 +3934,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3750,13 +3957,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3773,10 +3980,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>258</v>
@@ -3796,10 +4003,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>257</v>
@@ -3819,13 +4026,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3839,48 +4046,48 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D58" s="6">
-        <v>302.9212</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3888,13 +4095,13 @@
         <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="D59" s="6">
+        <v>302.9212</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3911,13 +4118,13 @@
         <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C60" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3934,13 +4141,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3957,13 +4164,13 @@
         <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3980,21 +4187,21 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
+        <v>263</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>0</v>
       </c>
     </row>
@@ -4003,13 +4210,13 @@
         <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -4026,13 +4233,13 @@
         <v>22</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -4049,13 +4256,13 @@
         <v>22</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -4069,48 +4276,48 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" t="s">
-        <v>188</v>
-      </c>
-      <c r="G67" t="s">
-        <v>188</v>
+        <v>267</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>290</v>
-      </c>
-      <c r="D68" s="6">
-        <v>302.83120000000002</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4118,13 +4325,13 @@
         <v>24</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D69" s="6">
-        <v>302.83109999999999</v>
+        <v>302.83120000000002</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4141,13 +4348,13 @@
         <v>24</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" s="6">
-        <v>302.8313</v>
+        <v>302.83109999999999</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4164,13 +4371,13 @@
         <v>24</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D71" s="6">
-        <v>302.83190000000002</v>
+        <v>302.8313</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4187,13 +4394,13 @@
         <v>24</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="D72" s="6">
+        <v>302.83190000000002</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4210,10 +4417,10 @@
         <v>24</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>291</v>
@@ -4233,13 +4440,13 @@
         <v>24</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="C74" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4256,13 +4463,13 @@
         <v>24</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4279,13 +4486,13 @@
         <v>24</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4302,13 +4509,13 @@
         <v>24</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4325,13 +4532,13 @@
         <v>24</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" s="6">
-        <v>304.92110000000002</v>
+        <v>289</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4348,13 +4555,13 @@
         <v>24</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D79" s="6">
-        <v>304.9212</v>
+        <v>304.92110000000002</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4371,13 +4578,13 @@
         <v>24</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D80" s="6">
-        <v>304.92189999999999</v>
+        <v>304.9212</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4394,13 +4601,13 @@
         <v>24</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="D81" s="6">
+        <v>304.92189999999999</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4414,48 +4621,48 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>298</v>
+        <v>24</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" t="s">
-        <v>188</v>
-      </c>
-      <c r="F82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" t="s">
-        <v>188</v>
+        <v>294</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>301</v>
+        <v>25</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4463,13 +4670,13 @@
         <v>26</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4486,13 +4693,13 @@
         <v>26</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4506,48 +4713,48 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>188</v>
+        <v>302</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>305</v>
+        <v>27</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4555,13 +4762,13 @@
         <v>28</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D88" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E88" s="4">
         <v>1</v>
@@ -4578,13 +4785,13 @@
         <v>28</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -4601,13 +4808,13 @@
         <v>28</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D90" s="6" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -4624,13 +4831,13 @@
         <v>28</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D91" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E91" s="4">
         <v>1</v>
@@ -4647,13 +4854,13 @@
         <v>28</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
@@ -4670,13 +4877,13 @@
         <v>28</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D93" s="6" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E93" s="4">
         <v>1</v>
@@ -4693,13 +4900,13 @@
         <v>28</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D94" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E94" s="4">
         <v>1</v>
@@ -4716,13 +4923,13 @@
         <v>28</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="E95" s="4">
         <v>1</v>
@@ -4739,13 +4946,13 @@
         <v>28</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E96" s="4">
         <v>1</v>
@@ -4762,13 +4969,13 @@
         <v>28</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D97" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -4785,13 +4992,13 @@
         <v>28</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -4808,19 +5015,19 @@
         <v>28</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="D99" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
@@ -4831,13 +5038,13 @@
         <v>28</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -4851,48 +5058,48 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>188</v>
+        <v>407</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E101" t="s">
-        <v>188</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
-      </c>
-      <c r="G101" t="s">
-        <v>188</v>
+        <v>309</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E102" t="s">
+        <v>187</v>
+      </c>
+      <c r="F102" t="s">
+        <v>187</v>
+      </c>
+      <c r="G102" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4900,16 +5107,16 @@
         <v>30</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4923,13 +5130,13 @@
         <v>30</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4946,13 +5153,13 @@
         <v>30</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4969,13 +5176,13 @@
         <v>30</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4992,16 +5199,16 @@
         <v>30</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5015,13 +5222,13 @@
         <v>30</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5038,13 +5245,13 @@
         <v>30</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5061,19 +5268,19 @@
         <v>30</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5084,13 +5291,13 @@
         <v>30</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5104,163 +5311,163 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>188</v>
+        <v>408</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E112" t="s">
-        <v>188</v>
-      </c>
-      <c r="F112" t="s">
-        <v>188</v>
-      </c>
-      <c r="G112" t="s">
-        <v>188</v>
+        <v>319</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G117" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E118" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118" t="s">
+        <v>187</v>
+      </c>
+      <c r="G118" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5268,13 +5475,13 @@
         <v>37</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5291,13 +5498,13 @@
         <v>37</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5314,13 +5521,13 @@
         <v>37</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5337,13 +5544,13 @@
         <v>37</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5355,18 +5562,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>37</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5380,16 +5587,16 @@
     </row>
     <row r="124" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5406,13 +5613,13 @@
         <v>38</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5424,18 +5631,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>38</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5447,18 +5654,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>38</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -5475,13 +5682,13 @@
         <v>38</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5493,18 +5700,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>38</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5518,22 +5725,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5544,19 +5751,19 @@
         <v>39</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5567,13 +5774,13 @@
         <v>39</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5590,13 +5797,13 @@
         <v>39</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5613,13 +5820,13 @@
         <v>39</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5636,13 +5843,13 @@
         <v>39</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -5659,13 +5866,13 @@
         <v>39</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5682,13 +5889,13 @@
         <v>39</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -5700,24 +5907,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>410</v>
+        <v>336</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5728,19 +5935,19 @@
         <v>40</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -5751,13 +5958,13 @@
         <v>40</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5774,13 +5981,13 @@
         <v>40</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5797,13 +6004,13 @@
         <v>40</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5820,13 +6027,13 @@
         <v>40</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5843,13 +6050,13 @@
         <v>40</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5866,16 +6073,16 @@
         <v>40</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5889,13 +6096,13 @@
         <v>40</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -5909,16 +6116,16 @@
     </row>
     <row r="147" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -5930,24 +6137,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>41</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5958,19 +6165,19 @@
         <v>41</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5981,13 +6188,13 @@
         <v>41</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6004,13 +6211,13 @@
         <v>41</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6027,13 +6234,13 @@
         <v>41</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6050,13 +6257,13 @@
         <v>41</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6073,13 +6280,13 @@
         <v>41</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6093,19 +6300,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -6119,13 +6326,13 @@
         <v>42</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -6139,16 +6346,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -6165,13 +6372,13 @@
         <v>43</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6185,71 +6392,71 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>44</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B160" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E160" t="s">
+        <v>187</v>
+      </c>
+      <c r="F160" t="s">
+        <v>187</v>
+      </c>
+      <c r="G160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E159" t="s">
-        <v>188</v>
-      </c>
-      <c r="F159" t="s">
-        <v>188</v>
-      </c>
-      <c r="G159" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>45</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E160" t="s">
-        <v>188</v>
-      </c>
-      <c r="F160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="C161" s="5" t="s">
-        <v>362</v>
+        <v>187</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E161" t="s">
+        <v>187</v>
+      </c>
+      <c r="F161" t="s">
+        <v>187</v>
+      </c>
+      <c r="G161" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6257,13 +6464,13 @@
         <v>46</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -6280,14 +6487,14 @@
         <v>46</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="E163">
         <v>0</v>
       </c>
@@ -6298,18 +6505,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>46</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -6326,13 +6533,13 @@
         <v>46</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6344,18 +6551,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>46</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -6372,13 +6579,13 @@
         <v>46</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -6395,10 +6602,10 @@
         <v>46</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>366</v>
@@ -6418,13 +6625,13 @@
         <v>46</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6441,13 +6648,13 @@
         <v>46</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -6464,13 +6671,13 @@
         <v>46</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6487,19 +6694,19 @@
         <v>46</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6510,13 +6717,13 @@
         <v>46</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6533,13 +6740,13 @@
         <v>46</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6556,13 +6763,13 @@
         <v>46</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6579,16 +6786,16 @@
         <v>46</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -6602,19 +6809,19 @@
         <v>46</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6622,19 +6829,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>230</v>
+        <v>369</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -6648,13 +6855,13 @@
         <v>47</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="D179" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -6671,13 +6878,13 @@
         <v>47</v>
       </c>
       <c r="B180" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="D180" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -6691,19 +6898,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -6717,10 +6924,10 @@
         <v>48</v>
       </c>
       <c r="B182" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>383</v>
@@ -6737,94 +6944,94 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E183" t="s">
-        <v>188</v>
-      </c>
-      <c r="F183" t="s">
-        <v>188</v>
-      </c>
-      <c r="G183" t="s">
-        <v>188</v>
+        <v>382</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E186" t="s">
+        <v>187</v>
+      </c>
+      <c r="F186" t="s">
+        <v>187</v>
+      </c>
+      <c r="G186" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6832,13 +7039,13 @@
         <v>52</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -6855,13 +7062,13 @@
         <v>52</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -6873,18 +7080,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B189" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D189" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -6901,13 +7108,13 @@
         <v>53</v>
       </c>
       <c r="B190" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D190" s="6" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -6924,13 +7131,13 @@
         <v>53</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D191" s="6" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -6942,21 +7149,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6970,13 +7177,13 @@
         <v>54</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6993,13 +7200,13 @@
         <v>54</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7016,13 +7223,13 @@
         <v>54</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -7039,13 +7246,13 @@
         <v>54</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7062,13 +7269,13 @@
         <v>54</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -7085,13 +7292,13 @@
         <v>54</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -7108,13 +7315,13 @@
         <v>54</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -7131,13 +7338,13 @@
         <v>54</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -7154,16 +7361,16 @@
         <v>54</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -7177,13 +7384,13 @@
         <v>54</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -7200,16 +7407,16 @@
         <v>54</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -7223,16 +7430,16 @@
         <v>54</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -7246,13 +7453,13 @@
         <v>54</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -7266,19 +7473,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -7292,13 +7499,13 @@
         <v>55</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D207" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -7315,13 +7522,13 @@
         <v>55</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -7338,13 +7545,13 @@
         <v>55</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -7361,13 +7568,13 @@
         <v>55</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -7384,13 +7591,13 @@
         <v>55</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -7407,16 +7614,16 @@
         <v>55</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -7430,14 +7637,14 @@
         <v>55</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D213" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="E213">
         <v>1</v>
       </c>
@@ -7448,21 +7655,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7476,13 +7683,13 @@
         <v>56</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -7499,13 +7706,13 @@
         <v>56</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -7522,13 +7729,13 @@
         <v>56</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -7545,13 +7752,13 @@
         <v>56</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -7568,13 +7775,13 @@
         <v>56</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -7591,13 +7798,13 @@
         <v>56</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -7614,13 +7821,13 @@
         <v>56</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -7637,16 +7844,16 @@
         <v>56</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -7660,14 +7867,14 @@
         <v>56</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C223" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D223" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D223" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="E223">
         <v>1</v>
       </c>
@@ -7678,165 +7885,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E224" t="s">
-        <v>188</v>
-      </c>
-      <c r="F224" t="s">
-        <v>188</v>
-      </c>
-      <c r="G224" t="s">
-        <v>188</v>
+        <v>405</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E225" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F225" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G225" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E229" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F229" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="G229" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>434</v>
+        <v>187</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E230" t="s">
+        <v>187</v>
+      </c>
+      <c r="F230" t="s">
+        <v>322</v>
+      </c>
+      <c r="G230" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7844,16 +8051,16 @@
         <v>63</v>
       </c>
       <c r="B231" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -7864,140 +8071,140 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E232" t="s">
-        <v>188</v>
-      </c>
-      <c r="F232" t="s">
-        <v>188</v>
-      </c>
-      <c r="G232" t="s">
-        <v>188</v>
+        <v>435</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E233" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F233" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G233" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E234" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F234" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G234" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E235" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F235" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G235" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G236" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>441</v>
+        <v>187</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E237" t="s">
+        <v>187</v>
+      </c>
+      <c r="F237" t="s">
+        <v>187</v>
+      </c>
+      <c r="G237" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -8005,13 +8212,13 @@
         <v>69</v>
       </c>
       <c r="B238" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -8028,13 +8235,13 @@
         <v>69</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -8051,13 +8258,13 @@
         <v>69</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -8074,13 +8281,13 @@
         <v>69</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -8097,13 +8304,13 @@
         <v>69</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -8117,16 +8324,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -8143,13 +8350,13 @@
         <v>70</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -8166,13 +8373,13 @@
         <v>70</v>
       </c>
       <c r="B245" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D245" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -8189,13 +8396,13 @@
         <v>70</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -8212,13 +8419,13 @@
         <v>70</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -8235,13 +8442,13 @@
         <v>70</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -8255,16 +8462,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -8281,13 +8488,13 @@
         <v>71</v>
       </c>
       <c r="B250" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="D250" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -8301,94 +8508,94 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E251" t="s">
-        <v>188</v>
-      </c>
-      <c r="F251" t="s">
-        <v>188</v>
-      </c>
-      <c r="G251" t="s">
-        <v>188</v>
+        <v>457</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="E254" t="s">
+        <v>187</v>
+      </c>
+      <c r="F254" t="s">
+        <v>187</v>
+      </c>
+      <c r="G254" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -8396,13 +8603,13 @@
         <v>75</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -8419,13 +8626,13 @@
         <v>75</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -8442,13 +8649,13 @@
         <v>75</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C257" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -8465,13 +8672,13 @@
         <v>75</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -8488,13 +8695,13 @@
         <v>75</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -8511,13 +8718,13 @@
         <v>75</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -8534,13 +8741,13 @@
         <v>75</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -8557,13 +8764,13 @@
         <v>75</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -8580,13 +8787,13 @@
         <v>75</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -8603,13 +8810,13 @@
         <v>75</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -8626,13 +8833,13 @@
         <v>75</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -8649,13 +8856,13 @@
         <v>75</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -8672,13 +8879,13 @@
         <v>75</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -8695,13 +8902,13 @@
         <v>75</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -8718,13 +8925,13 @@
         <v>75</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -8741,13 +8948,13 @@
         <v>75</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -8764,13 +8971,13 @@
         <v>75</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -8787,13 +8994,13 @@
         <v>75</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -8810,13 +9017,13 @@
         <v>75</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -8833,13 +9040,13 @@
         <v>75</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -8856,13 +9063,13 @@
         <v>75</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -8879,13 +9086,13 @@
         <v>75</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -8902,13 +9109,13 @@
         <v>75</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -8925,13 +9132,13 @@
         <v>75</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -8948,13 +9155,13 @@
         <v>75</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -8971,13 +9178,13 @@
         <v>75</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -8994,13 +9201,13 @@
         <v>75</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -9017,13 +9224,13 @@
         <v>75</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -9032,21 +9239,21 @@
         <v>0</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9055,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -9063,13 +9270,13 @@
         <v>76</v>
       </c>
       <c r="B284" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9086,13 +9293,13 @@
         <v>76</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9106,16 +9313,16 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -9132,13 +9339,13 @@
         <v>77</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -9155,13 +9362,13 @@
         <v>77</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -9178,1056 +9385,2178 @@
         <v>77</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>188</v>
+        <v>492</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E289" t="s">
-        <v>188</v>
-      </c>
-      <c r="F289" t="s">
-        <v>188</v>
-      </c>
-      <c r="G289" t="s">
-        <v>188</v>
+        <v>496</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>78</v>
-      </c>
-      <c r="B290" t="s">
-        <v>502</v>
+        <v>77</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E290" t="s">
+        <v>187</v>
+      </c>
+      <c r="F290" t="s">
+        <v>187</v>
+      </c>
+      <c r="G290" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>503</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>504</v>
+        <v>637</v>
+      </c>
+      <c r="B291" t="s">
+        <v>501</v>
+      </c>
+      <c r="C291" t="s">
+        <v>501</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>79</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>505</v>
+        <v>637</v>
+      </c>
+      <c r="B292" t="s">
+        <v>501</v>
+      </c>
+      <c r="C292" t="s">
+        <v>501</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>80</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>506</v>
+        <v>637</v>
+      </c>
+      <c r="B293" t="s">
+        <v>501</v>
+      </c>
+      <c r="C293" t="s">
+        <v>501</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>81</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>507</v>
+        <v>637</v>
+      </c>
+      <c r="B294" t="s">
+        <v>501</v>
+      </c>
+      <c r="C294" t="s">
+        <v>501</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="B295" t="s">
-        <v>508</v>
+        <v>501</v>
+      </c>
+      <c r="C295" t="s">
+        <v>501</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>83</v>
+        <v>637</v>
       </c>
       <c r="B296" t="s">
-        <v>509</v>
+        <v>501</v>
+      </c>
+      <c r="C296" t="s">
+        <v>501</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="B297" t="s">
-        <v>510</v>
+        <v>501</v>
+      </c>
+      <c r="C297" t="s">
+        <v>501</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>85</v>
+        <v>637</v>
       </c>
       <c r="B298" t="s">
-        <v>511</v>
+        <v>501</v>
+      </c>
+      <c r="C298" t="s">
+        <v>501</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D299" s="11"/>
-    </row>
-    <row r="300" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D300" s="11"/>
+      <c r="A299" t="s">
+        <v>637</v>
+      </c>
+      <c r="B299" t="s">
+        <v>501</v>
+      </c>
+      <c r="C299" t="s">
+        <v>501</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>502</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C300" t="s">
+        <v>649</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>86</v>
-      </c>
-      <c r="B301" t="s">
-        <v>516</v>
+        <v>78</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C301" t="s">
+        <v>187</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E301" t="s">
+        <v>187</v>
+      </c>
+      <c r="F301" t="s">
+        <v>187</v>
+      </c>
+      <c r="G301" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>87</v>
-      </c>
-      <c r="B302" t="s">
-        <v>517</v>
+        <v>79</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>518</v>
-      </c>
-      <c r="B303" t="s">
-        <v>519</v>
+        <v>79</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>79</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>79</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>79</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>79</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>79</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>79</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>80</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>80</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>80</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>80</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>80</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>80</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>80</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>80</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>80</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>81</v>
+      </c>
+      <c r="B320" t="s">
+        <v>507</v>
+      </c>
+      <c r="C320" t="s">
+        <v>507</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>81</v>
+      </c>
+      <c r="B321" t="s">
+        <v>507</v>
+      </c>
+      <c r="C321" t="s">
+        <v>507</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>81</v>
+      </c>
+      <c r="B322" t="s">
+        <v>507</v>
+      </c>
+      <c r="C322" t="s">
+        <v>507</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>81</v>
+      </c>
+      <c r="B323" t="s">
+        <v>507</v>
+      </c>
+      <c r="C323" t="s">
+        <v>507</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>81</v>
+      </c>
+      <c r="B324" t="s">
+        <v>507</v>
+      </c>
+      <c r="C324" t="s">
+        <v>507</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>81</v>
+      </c>
+      <c r="B325" t="s">
+        <v>507</v>
+      </c>
+      <c r="C325" t="s">
+        <v>507</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>81</v>
+      </c>
+      <c r="B326" t="s">
+        <v>507</v>
+      </c>
+      <c r="C326" t="s">
+        <v>507</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>81</v>
+      </c>
+      <c r="B327" t="s">
+        <v>507</v>
+      </c>
+      <c r="C327" t="s">
+        <v>507</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>81</v>
+      </c>
+      <c r="B328" t="s">
+        <v>507</v>
+      </c>
+      <c r="C328" t="s">
+        <v>507</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>82</v>
+      </c>
+      <c r="B329" t="s">
+        <v>508</v>
+      </c>
+      <c r="C329" t="s">
+        <v>508</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>82</v>
+      </c>
+      <c r="B330" t="s">
+        <v>508</v>
+      </c>
+      <c r="C330" t="s">
+        <v>508</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>82</v>
+      </c>
+      <c r="B331" t="s">
+        <v>508</v>
+      </c>
+      <c r="C331" t="s">
+        <v>508</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>82</v>
+      </c>
+      <c r="B332" t="s">
+        <v>508</v>
+      </c>
+      <c r="C332" t="s">
+        <v>508</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>82</v>
+      </c>
+      <c r="B333" t="s">
+        <v>508</v>
+      </c>
+      <c r="C333" t="s">
+        <v>508</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>82</v>
+      </c>
+      <c r="B334" t="s">
+        <v>508</v>
+      </c>
+      <c r="C334" t="s">
+        <v>508</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>82</v>
+      </c>
+      <c r="B335" t="s">
+        <v>508</v>
+      </c>
+      <c r="C335" t="s">
+        <v>508</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>82</v>
+      </c>
+      <c r="B336" t="s">
+        <v>508</v>
+      </c>
+      <c r="C336" t="s">
+        <v>508</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>82</v>
+      </c>
+      <c r="B337" t="s">
+        <v>508</v>
+      </c>
+      <c r="C337" t="s">
+        <v>508</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>83</v>
+      </c>
+      <c r="B338" t="s">
+        <v>509</v>
+      </c>
+      <c r="C338" t="s">
+        <v>509</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>83</v>
+      </c>
+      <c r="B339" t="s">
+        <v>509</v>
+      </c>
+      <c r="C339" t="s">
+        <v>509</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>83</v>
+      </c>
+      <c r="B340" t="s">
+        <v>509</v>
+      </c>
+      <c r="C340" t="s">
+        <v>509</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>83</v>
+      </c>
+      <c r="B341" t="s">
+        <v>509</v>
+      </c>
+      <c r="C341" t="s">
+        <v>509</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" t="s">
+        <v>509</v>
+      </c>
+      <c r="C342" t="s">
+        <v>509</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>83</v>
+      </c>
+      <c r="B343" t="s">
+        <v>509</v>
+      </c>
+      <c r="C343" t="s">
+        <v>509</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>83</v>
+      </c>
+      <c r="B344" t="s">
+        <v>509</v>
+      </c>
+      <c r="C344" t="s">
+        <v>509</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>83</v>
+      </c>
+      <c r="B345" t="s">
+        <v>509</v>
+      </c>
+      <c r="C345" t="s">
+        <v>509</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>83</v>
+      </c>
+      <c r="B346" t="s">
+        <v>509</v>
+      </c>
+      <c r="C346" t="s">
+        <v>509</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>84</v>
+      </c>
+      <c r="B347" t="s">
+        <v>510</v>
+      </c>
+      <c r="C347" t="s">
+        <v>696</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>84</v>
+      </c>
+      <c r="B348" t="s">
+        <v>510</v>
+      </c>
+      <c r="C348" t="s">
+        <v>696</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>84</v>
+      </c>
+      <c r="B349" t="s">
+        <v>510</v>
+      </c>
+      <c r="C349" t="s">
+        <v>696</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>84</v>
+      </c>
+      <c r="B350" t="s">
+        <v>510</v>
+      </c>
+      <c r="C350" t="s">
+        <v>696</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>84</v>
+      </c>
+      <c r="B351" t="s">
+        <v>510</v>
+      </c>
+      <c r="C351" t="s">
+        <v>696</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>84</v>
+      </c>
+      <c r="B352" t="s">
+        <v>510</v>
+      </c>
+      <c r="C352" t="s">
+        <v>696</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>84</v>
+      </c>
+      <c r="B353" t="s">
+        <v>510</v>
+      </c>
+      <c r="C353" t="s">
+        <v>696</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>84</v>
+      </c>
+      <c r="B354" t="s">
+        <v>510</v>
+      </c>
+      <c r="C354" t="s">
+        <v>696</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>84</v>
+      </c>
+      <c r="B355" t="s">
+        <v>510</v>
+      </c>
+      <c r="C355" t="s">
+        <v>696</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D356" s="11"/>
+    </row>
+    <row r="357" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D357" s="11"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>85</v>
+      </c>
+      <c r="B358" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>86</v>
+      </c>
+      <c r="B359" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>517</v>
+      </c>
+      <c r="B360" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>519</v>
+      </c>
+      <c r="B361" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>520</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B362" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>521</v>
-      </c>
-      <c r="B305" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>87</v>
+      </c>
+      <c r="B363" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>524</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>88</v>
       </c>
-      <c r="B306" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>525</v>
-      </c>
-      <c r="B307" s="5" t="s">
+      <c r="B365" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>89</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B366" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>90</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B367" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>91</v>
+      </c>
+      <c r="B368" s="5" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>91</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>92</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>532</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>93</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>94</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>95</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>537</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>96</v>
-      </c>
-      <c r="B317" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>97</v>
-      </c>
-      <c r="B318" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>98</v>
-      </c>
-      <c r="B319" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>99</v>
-      </c>
-      <c r="B320" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>100</v>
-      </c>
-      <c r="B321" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>101</v>
-      </c>
-      <c r="B322" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>102</v>
-      </c>
-      <c r="B323" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>103</v>
-      </c>
-      <c r="B324" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>104</v>
-      </c>
-      <c r="B325" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>105</v>
-      </c>
-      <c r="B326" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>106</v>
-      </c>
-      <c r="B327" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>107</v>
-      </c>
-      <c r="B328" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>108</v>
-      </c>
-      <c r="B329" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>109</v>
-      </c>
-      <c r="B330" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>110</v>
-      </c>
-      <c r="B331" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>111</v>
-      </c>
-      <c r="B332" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>557</v>
-      </c>
-      <c r="B333" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>112</v>
-      </c>
-      <c r="B334" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>559</v>
-      </c>
-      <c r="B335" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>113</v>
-      </c>
-      <c r="B336" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>561</v>
-      </c>
-      <c r="B337" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>114</v>
-      </c>
-      <c r="B338" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>115</v>
-      </c>
-      <c r="B339" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>116</v>
-      </c>
-      <c r="B340" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>117</v>
-      </c>
-      <c r="B341" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>118</v>
-      </c>
-      <c r="B342" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>571</v>
-      </c>
-      <c r="B343" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>573</v>
-      </c>
-      <c r="B344" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>119</v>
-      </c>
-      <c r="B345" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>120</v>
-      </c>
-      <c r="B346" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>121</v>
-      </c>
-      <c r="B347" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>122</v>
-      </c>
-      <c r="B348" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>580</v>
-      </c>
-      <c r="B349" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>123</v>
-      </c>
-      <c r="B350" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>124</v>
-      </c>
-      <c r="B351" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>125</v>
-      </c>
-      <c r="B352" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>126</v>
-      </c>
-      <c r="B353" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>127</v>
-      </c>
-      <c r="B354" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>128</v>
-      </c>
-      <c r="B355" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>129</v>
-      </c>
-      <c r="B356" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>130</v>
-      </c>
-      <c r="B357" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>131</v>
-      </c>
-      <c r="B358" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>132</v>
-      </c>
-      <c r="B359" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>593</v>
-      </c>
-      <c r="B360" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>133</v>
-      </c>
-      <c r="B361" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>134</v>
-      </c>
-      <c r="B362" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>135</v>
-      </c>
-      <c r="B363" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>136</v>
-      </c>
-      <c r="B364" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>137</v>
-      </c>
-      <c r="B365" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>138</v>
-      </c>
-      <c r="B366" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>139</v>
-      </c>
-      <c r="B367" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>140</v>
-      </c>
-      <c r="B368" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>141</v>
-      </c>
-      <c r="B369" t="s">
-        <v>188</v>
+        <v>531</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>142</v>
-      </c>
-      <c r="B370" t="s">
-        <v>604</v>
+        <v>92</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>143</v>
-      </c>
-      <c r="B371" t="s">
-        <v>605</v>
+        <v>93</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>144</v>
-      </c>
-      <c r="B372" t="s">
-        <v>606</v>
+        <v>94</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>145</v>
-      </c>
-      <c r="B373" t="s">
-        <v>607</v>
+        <v>536</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B374" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B375" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B376" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B377" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B378" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B379" t="s">
-        <v>609</v>
+        <v>538</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B380" t="s">
-        <v>610</v>
+        <v>539</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B381" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B382" t="s">
-        <v>614</v>
+        <v>541</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B383" t="s">
-        <v>612</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B384" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B385" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B386" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B387" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B388" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B389" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>162</v>
+        <v>556</v>
       </c>
       <c r="B390" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B391" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>558</v>
+      </c>
+      <c r="B392" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>112</v>
+      </c>
+      <c r="B393" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>560</v>
+      </c>
+      <c r="B394" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>113</v>
+      </c>
+      <c r="B395" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>114</v>
+      </c>
+      <c r="B396" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>115</v>
+      </c>
+      <c r="B397" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>116</v>
+      </c>
+      <c r="B398" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>117</v>
+      </c>
+      <c r="B399" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>165</v>
-      </c>
-      <c r="B393" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>166</v>
-      </c>
-      <c r="B394" t="s">
-        <v>622</v>
-      </c>
-      <c r="C394" t="s">
-        <v>499</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="E394">
-        <v>0</v>
-      </c>
-      <c r="F394">
-        <v>0</v>
-      </c>
-      <c r="G394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>166</v>
-      </c>
-      <c r="B395" t="s">
-        <v>622</v>
-      </c>
-      <c r="C395" t="s">
-        <v>499</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E395">
-        <v>0</v>
-      </c>
-      <c r="F395">
-        <v>0</v>
-      </c>
-      <c r="G395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>167</v>
-      </c>
-      <c r="B396" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>168</v>
-      </c>
-      <c r="B397" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>169</v>
-      </c>
-      <c r="B398" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>170</v>
-      </c>
-      <c r="B399" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>171</v>
-      </c>
       <c r="B400" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>172</v>
+        <v>572</v>
       </c>
       <c r="B401" t="s">
-        <v>627</v>
+        <v>573</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B402" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B403" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B404" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B405" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>177</v>
+        <v>579</v>
       </c>
       <c r="B406" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B407" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B408" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B409" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B410" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B411" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B412" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B413" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="B414" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>186</v>
+        <v>130</v>
+      </c>
+      <c r="B415" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>131</v>
+      </c>
+      <c r="B416" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>592</v>
+      </c>
+      <c r="B417" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>132</v>
+      </c>
+      <c r="B418" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>133</v>
+      </c>
+      <c r="B419" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>134</v>
+      </c>
+      <c r="B420" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>135</v>
+      </c>
+      <c r="B421" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>136</v>
+      </c>
+      <c r="B422" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>137</v>
+      </c>
+      <c r="B423" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>138</v>
+      </c>
+      <c r="B424" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>139</v>
+      </c>
+      <c r="B425" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>140</v>
+      </c>
+      <c r="B426" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>141</v>
+      </c>
+      <c r="B427" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>142</v>
+      </c>
+      <c r="B428" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>143</v>
+      </c>
+      <c r="B429" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>144</v>
+      </c>
+      <c r="B430" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>145</v>
+      </c>
+      <c r="B431" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>146</v>
+      </c>
+      <c r="B432" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>147</v>
+      </c>
+      <c r="B433" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>148</v>
+      </c>
+      <c r="B434" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>149</v>
+      </c>
+      <c r="B435" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>150</v>
+      </c>
+      <c r="B436" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>151</v>
+      </c>
+      <c r="B437" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>152</v>
+      </c>
+      <c r="B438" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>153</v>
+      </c>
+      <c r="B439" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>154</v>
+      </c>
+      <c r="B440" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>155</v>
+      </c>
+      <c r="B441" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>156</v>
+      </c>
+      <c r="B442" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>157</v>
+      </c>
+      <c r="B443" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>158</v>
+      </c>
+      <c r="B444" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>159</v>
+      </c>
+      <c r="B445" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>160</v>
+      </c>
+      <c r="B446" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>161</v>
+      </c>
+      <c r="B447" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>162</v>
+      </c>
+      <c r="B448" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>164</v>
+      </c>
+      <c r="B450" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>165</v>
+      </c>
+      <c r="B451" t="s">
+        <v>621</v>
+      </c>
+      <c r="C451" t="s">
+        <v>498</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>165</v>
+      </c>
+      <c r="B452" t="s">
+        <v>621</v>
+      </c>
+      <c r="C452" t="s">
+        <v>498</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>166</v>
+      </c>
+      <c r="B453" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>167</v>
+      </c>
+      <c r="B454" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>168</v>
+      </c>
+      <c r="B455" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>169</v>
+      </c>
+      <c r="B456" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>170</v>
+      </c>
+      <c r="B457" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>171</v>
+      </c>
+      <c r="B458" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>172</v>
+      </c>
+      <c r="B459" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>173</v>
+      </c>
+      <c r="B460" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>174</v>
+      </c>
+      <c r="B461" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>175</v>
+      </c>
+      <c r="B462" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>176</v>
+      </c>
+      <c r="B463" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>177</v>
+      </c>
+      <c r="B464" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>178</v>
+      </c>
+      <c r="B465" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>179</v>
+      </c>
+      <c r="B466" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>180</v>
+      </c>
+      <c r="B467" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>181</v>
+      </c>
+      <c r="B468" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>182</v>
+      </c>
+      <c r="B469" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>183</v>
+      </c>
+      <c r="B470" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>184</v>
+      </c>
+      <c r="B471" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -10242,7 +11571,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10254,7 +11583,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -10265,62 +11594,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
         <v>206</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10330,10 +11659,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10346,50 +11675,44 @@
     <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>285</v>
+        <v>637</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>501</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="H2" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="781">
   <si>
     <t>especie_SERNAPESCA</t>
   </si>
@@ -2318,13 +2318,241 @@
   </si>
   <si>
     <t>0305.7123</t>
+  </si>
+  <si>
+    <t>0301.9100</t>
+  </si>
+  <si>
+    <t>0302.11</t>
+  </si>
+  <si>
+    <t>0303.14</t>
+  </si>
+  <si>
+    <t>0303.1410</t>
+  </si>
+  <si>
+    <t>0303.1420</t>
+  </si>
+  <si>
+    <t>0303.1430</t>
+  </si>
+  <si>
+    <t>0303.1440</t>
+  </si>
+  <si>
+    <t>0303.1490</t>
+  </si>
+  <si>
+    <t>0304.4200</t>
+  </si>
+  <si>
+    <t>0304.8200</t>
+  </si>
+  <si>
+    <t>0304.9951</t>
+  </si>
+  <si>
+    <t>0304.9959</t>
+  </si>
+  <si>
+    <t>0305.2020</t>
+  </si>
+  <si>
+    <t>0305.3920</t>
+  </si>
+  <si>
+    <t>0305.43</t>
+  </si>
+  <si>
+    <t>0305.4310</t>
+  </si>
+  <si>
+    <t>0305.4320</t>
+  </si>
+  <si>
+    <t>0305.4330</t>
+  </si>
+  <si>
+    <t>0305.4390</t>
+  </si>
+  <si>
+    <t>Psetta maxima</t>
+  </si>
+  <si>
+    <t>0302.2400</t>
+  </si>
+  <si>
+    <t>0303.3400</t>
+  </si>
+  <si>
+    <t>0307.8110</t>
+  </si>
+  <si>
+    <t>0307.8320</t>
+  </si>
+  <si>
+    <t>1605.5710</t>
+  </si>
+  <si>
+    <t>0307.8310</t>
+  </si>
+  <si>
+    <t>Ameghinomya antiqua</t>
+  </si>
+  <si>
+    <t>0307.7110</t>
+  </si>
+  <si>
+    <t>0307.7211</t>
+  </si>
+  <si>
+    <t>1605.5611</t>
+  </si>
+  <si>
+    <t>0307.4220</t>
+  </si>
+  <si>
+    <t>Loligo spp</t>
+  </si>
+  <si>
+    <t>0307.9224</t>
+  </si>
+  <si>
+    <t>1605.5934</t>
+  </si>
+  <si>
+    <t>0307.9223</t>
+  </si>
+  <si>
+    <t>1605.5933</t>
+  </si>
+  <si>
+    <t>0307.9221</t>
+  </si>
+  <si>
+    <t>1605.5931</t>
+  </si>
+  <si>
+    <t>Trophon gervesianus</t>
+  </si>
+  <si>
+    <t>0307.9222</t>
+  </si>
+  <si>
+    <t>1605.5932</t>
+  </si>
+  <si>
+    <t>1605.5300</t>
+  </si>
+  <si>
+    <t>Mytilus spp.</t>
+  </si>
+  <si>
+    <t>0307.3100</t>
+  </si>
+  <si>
+    <t>0307.3200</t>
+  </si>
+  <si>
+    <t>0307.3900</t>
+  </si>
+  <si>
+    <t>1605.5970</t>
+  </si>
+  <si>
+    <t>0307.7120</t>
+  </si>
+  <si>
+    <t>0307.7215</t>
+  </si>
+  <si>
+    <t>1605.5960</t>
+  </si>
+  <si>
+    <t>0307.4320</t>
+  </si>
+  <si>
+    <t>0307.4330</t>
+  </si>
+  <si>
+    <t>0307.4340</t>
+  </si>
+  <si>
+    <t>0307.7212</t>
+  </si>
+  <si>
+    <t>1605.5612</t>
+  </si>
+  <si>
+    <t>0307.9230</t>
+  </si>
+  <si>
+    <t>0307.9130</t>
+  </si>
+  <si>
+    <t>0307.9210</t>
+  </si>
+  <si>
+    <t>1605.5920</t>
+  </si>
+  <si>
+    <t>0307.7213</t>
+  </si>
+  <si>
+    <t>1605.5910</t>
+  </si>
+  <si>
+    <t>0307.7216</t>
+  </si>
+  <si>
+    <t>1605.5950</t>
+  </si>
+  <si>
+    <t>0307.2110</t>
+  </si>
+  <si>
+    <t>0307.2210</t>
+  </si>
+  <si>
+    <t>0307.2910</t>
+  </si>
+  <si>
+    <t>1605.5210</t>
+  </si>
+  <si>
+    <t>0307.2120</t>
+  </si>
+  <si>
+    <t>0307.2220</t>
+  </si>
+  <si>
+    <t>0307.2920</t>
+  </si>
+  <si>
+    <t>0307.1110</t>
+  </si>
+  <si>
+    <t>0307.1210</t>
+  </si>
+  <si>
+    <t>Crassostrea gigas</t>
+  </si>
+  <si>
+    <t>0307.1120</t>
+  </si>
+  <si>
+    <t>0307.1220</t>
+  </si>
+  <si>
+    <t>1605.5100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,6 +2606,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2402,8 +2637,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2421,12 +2662,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2739,11 +2986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C356" sqref="C356"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7465,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7488,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7879,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -7902,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9282,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -9305,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -9328,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -9351,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -9374,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -9397,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -9643,7 +9890,7 @@
       <c r="C300" t="s">
         <v>649</v>
       </c>
-      <c r="D300" s="12" t="s">
+      <c r="D300" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E300">
@@ -10106,8 +10353,17 @@
       <c r="D320" s="6" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>81</v>
       </c>
@@ -10120,8 +10376,17 @@
       <c r="D321" s="6" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>81</v>
       </c>
@@ -10134,8 +10399,17 @@
       <c r="D322" s="6" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>81</v>
       </c>
@@ -10148,8 +10422,17 @@
       <c r="D323" s="6" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>81</v>
       </c>
@@ -10162,8 +10445,17 @@
       <c r="D324" s="6" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>81</v>
       </c>
@@ -10176,8 +10468,17 @@
       <c r="D325" s="6" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>81</v>
       </c>
@@ -10190,8 +10491,17 @@
       <c r="D326" s="6" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>81</v>
       </c>
@@ -10204,8 +10514,17 @@
       <c r="D327" s="6" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>81</v>
       </c>
@@ -10218,8 +10537,17 @@
       <c r="D328" s="6" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>82</v>
       </c>
@@ -10232,8 +10560,17 @@
       <c r="D329" s="6" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>82</v>
       </c>
@@ -10246,8 +10583,17 @@
       <c r="D330" s="6" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>82</v>
       </c>
@@ -10260,8 +10606,17 @@
       <c r="D331" s="6" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>82</v>
       </c>
@@ -10274,8 +10629,17 @@
       <c r="D332" s="6" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>82</v>
       </c>
@@ -10288,8 +10652,17 @@
       <c r="D333" s="6" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>82</v>
       </c>
@@ -10302,8 +10675,17 @@
       <c r="D334" s="6" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>82</v>
       </c>
@@ -10316,8 +10698,17 @@
       <c r="D335" s="6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>82</v>
       </c>
@@ -10330,8 +10721,17 @@
       <c r="D336" s="6" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>82</v>
       </c>
@@ -10344,8 +10744,17 @@
       <c r="D337" s="6" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>83</v>
       </c>
@@ -10358,8 +10767,17 @@
       <c r="D338" s="6" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>83</v>
       </c>
@@ -10372,8 +10790,17 @@
       <c r="D339" s="6" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>83</v>
       </c>
@@ -10386,8 +10813,17 @@
       <c r="D340" s="6" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>83</v>
       </c>
@@ -10400,8 +10836,17 @@
       <c r="D341" s="6" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>83</v>
       </c>
@@ -10414,8 +10859,17 @@
       <c r="D342" s="6" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>83</v>
       </c>
@@ -10428,8 +10882,17 @@
       <c r="D343" s="6" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>83</v>
       </c>
@@ -10442,8 +10905,17 @@
       <c r="D344" s="6" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>83</v>
       </c>
@@ -10456,8 +10928,17 @@
       <c r="D345" s="6" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>83</v>
       </c>
@@ -10470,8 +10951,17 @@
       <c r="D346" s="6" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>84</v>
       </c>
@@ -10484,8 +10974,17 @@
       <c r="D347" s="6" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>84</v>
       </c>
@@ -10498,8 +10997,17 @@
       <c r="D348" s="6" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>84</v>
       </c>
@@ -10512,8 +11020,17 @@
       <c r="D349" s="6" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>84</v>
       </c>
@@ -10526,8 +11043,17 @@
       <c r="D350" s="6" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>84</v>
       </c>
@@ -10540,8 +11066,17 @@
       <c r="D351" s="6" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>84</v>
       </c>
@@ -10554,8 +11089,17 @@
       <c r="D352" s="6" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>84</v>
       </c>
@@ -10568,8 +11112,17 @@
       <c r="D353" s="6" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>84</v>
       </c>
@@ -10582,8 +11135,17 @@
       <c r="D354" s="6" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>84</v>
       </c>
@@ -10596,966 +11158,2685 @@
       <c r="D355" s="6" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D356" s="11"/>
-    </row>
-    <row r="357" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C356" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E356" s="4">
+        <v>1</v>
+      </c>
+      <c r="F356" s="4">
+        <v>0</v>
+      </c>
+      <c r="G356" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E357" s="4">
+        <v>1</v>
+      </c>
+      <c r="F357" s="4">
+        <v>0</v>
+      </c>
+      <c r="G357" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E358" s="4">
+        <v>1</v>
+      </c>
+      <c r="F358" s="4">
+        <v>0</v>
+      </c>
+      <c r="G358" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E359" s="4">
+        <v>1</v>
+      </c>
+      <c r="F359" s="4">
+        <v>0</v>
+      </c>
+      <c r="G359" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E360" s="4">
+        <v>1</v>
+      </c>
+      <c r="F360" s="4">
+        <v>0</v>
+      </c>
+      <c r="G360" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E361" s="4">
+        <v>1</v>
+      </c>
+      <c r="F361" s="4">
+        <v>0</v>
+      </c>
+      <c r="G361" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E362" s="4">
+        <v>1</v>
+      </c>
+      <c r="F362" s="4">
+        <v>0</v>
+      </c>
+      <c r="G362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E363" s="4">
+        <v>1</v>
+      </c>
+      <c r="F363" s="4">
+        <v>0</v>
+      </c>
+      <c r="G363" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E364" s="4">
+        <v>1</v>
+      </c>
+      <c r="F364" s="4">
+        <v>0</v>
+      </c>
+      <c r="G364" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E365" s="4">
+        <v>1</v>
+      </c>
+      <c r="F365" s="4">
+        <v>0</v>
+      </c>
+      <c r="G365" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E366" s="4">
+        <v>1</v>
+      </c>
+      <c r="F366" s="4">
+        <v>0</v>
+      </c>
+      <c r="G366" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E367" s="4">
+        <v>1</v>
+      </c>
+      <c r="F367" s="4">
+        <v>0</v>
+      </c>
+      <c r="G367" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E368" s="4">
+        <v>1</v>
+      </c>
+      <c r="F368" s="4">
+        <v>0</v>
+      </c>
+      <c r="G368" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E369" s="4">
+        <v>1</v>
+      </c>
+      <c r="F369" s="4">
+        <v>0</v>
+      </c>
+      <c r="G369" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E370" s="4">
+        <v>1</v>
+      </c>
+      <c r="F370" s="4">
+        <v>0</v>
+      </c>
+      <c r="G370" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E371" s="4">
+        <v>1</v>
+      </c>
+      <c r="F371" s="4">
+        <v>0</v>
+      </c>
+      <c r="G371" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E372" s="4">
+        <v>1</v>
+      </c>
+      <c r="F372" s="4">
+        <v>0</v>
+      </c>
+      <c r="G372" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E373" s="4">
+        <v>1</v>
+      </c>
+      <c r="F373" s="4">
+        <v>0</v>
+      </c>
+      <c r="G373" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E374" s="4">
+        <v>1</v>
+      </c>
+      <c r="F374" s="4">
+        <v>0</v>
+      </c>
+      <c r="G374" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B375" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D357" s="11"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+      <c r="C375" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E375" s="4">
+        <v>0</v>
+      </c>
+      <c r="F375" s="4">
+        <v>0</v>
+      </c>
+      <c r="G375" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E376" s="4">
+        <v>0</v>
+      </c>
+      <c r="F376" s="4">
+        <v>0</v>
+      </c>
+      <c r="G376" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>85</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B377" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+      <c r="C377" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>86</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B378" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="C378" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>517</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B379" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+      <c r="C379" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F379" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>519</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B380" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+      <c r="C380" t="s">
+        <v>521</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>519</v>
+      </c>
+      <c r="B381" t="s">
+        <v>521</v>
+      </c>
+      <c r="C381" t="s">
+        <v>521</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>519</v>
+      </c>
+      <c r="B382" t="s">
+        <v>521</v>
+      </c>
+      <c r="C382" t="s">
+        <v>521</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>520</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B383" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+      <c r="C383" t="s">
+        <v>522</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>87</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B384" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+      <c r="C384" t="s">
+        <v>731</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>87</v>
+      </c>
+      <c r="B385" t="s">
+        <v>523</v>
+      </c>
+      <c r="C385" t="s">
+        <v>731</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>87</v>
+      </c>
+      <c r="B386" t="s">
+        <v>523</v>
+      </c>
+      <c r="C386" t="s">
+        <v>731</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>524</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B387" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+      <c r="C387" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>524</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>524</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
         <v>88</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B390" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+      <c r="C390" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>89</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="B391" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+      <c r="C391" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>89</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>90</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B393" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+      <c r="C393" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>90</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>91</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B395" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+      <c r="C395" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E395" t="s">
+        <v>187</v>
+      </c>
+      <c r="F395" t="s">
+        <v>187</v>
+      </c>
+      <c r="G395" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>531</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B396" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+      <c r="C396" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>531</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>92</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B398" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+      <c r="C398" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E398" t="s">
+        <v>187</v>
+      </c>
+      <c r="F398" t="s">
+        <v>187</v>
+      </c>
+      <c r="G398" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>93</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B399" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+      <c r="C399" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E399" t="s">
+        <v>187</v>
+      </c>
+      <c r="F399" t="s">
+        <v>187</v>
+      </c>
+      <c r="G399" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>94</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B400" s="5" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+      <c r="C400" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E400" t="s">
+        <v>187</v>
+      </c>
+      <c r="F400" t="s">
+        <v>187</v>
+      </c>
+      <c r="G400" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>536</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B401" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+      <c r="C401" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>536</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>95</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B403" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+      <c r="C403" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E403" t="s">
+        <v>187</v>
+      </c>
+      <c r="F403" t="s">
+        <v>187</v>
+      </c>
+      <c r="G403" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>96</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B404" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+      <c r="C404" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>97</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B405" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+      <c r="C405" t="s">
+        <v>747</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>97</v>
+      </c>
+      <c r="B406" t="s">
+        <v>542</v>
+      </c>
+      <c r="C406" t="s">
+        <v>747</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>97</v>
+      </c>
+      <c r="B407" t="s">
+        <v>542</v>
+      </c>
+      <c r="C407" t="s">
+        <v>747</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>98</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B408" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+      <c r="C408" t="s">
+        <v>187</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>99</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B409" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+      <c r="C409" t="s">
+        <v>537</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>100</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B410" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+      <c r="C410" t="s">
+        <v>538</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>100</v>
+      </c>
+      <c r="B411" t="s">
+        <v>538</v>
+      </c>
+      <c r="C411" t="s">
+        <v>538</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E411" s="4">
+        <v>0</v>
+      </c>
+      <c r="F411" s="4">
+        <v>0</v>
+      </c>
+      <c r="G411" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>100</v>
+      </c>
+      <c r="B412" t="s">
+        <v>538</v>
+      </c>
+      <c r="C412" t="s">
+        <v>538</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="E412" s="4">
+        <v>0</v>
+      </c>
+      <c r="F412" s="4">
+        <v>1</v>
+      </c>
+      <c r="G412" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>101</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B413" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+      <c r="C413" t="s">
+        <v>539</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E413" s="4">
+        <v>0</v>
+      </c>
+      <c r="F413" s="4">
+        <v>0</v>
+      </c>
+      <c r="G413" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>101</v>
+      </c>
+      <c r="B414" t="s">
+        <v>539</v>
+      </c>
+      <c r="C414" t="s">
+        <v>539</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E414" s="4">
+        <v>0</v>
+      </c>
+      <c r="F414" s="4">
+        <v>0</v>
+      </c>
+      <c r="G414" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>101</v>
+      </c>
+      <c r="B415" t="s">
+        <v>539</v>
+      </c>
+      <c r="C415" t="s">
+        <v>539</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="E415" s="4">
+        <v>0</v>
+      </c>
+      <c r="F415" s="4">
+        <v>0</v>
+      </c>
+      <c r="G415" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
         <v>102</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B416" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+      <c r="C416" t="s">
+        <v>540</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E416" s="4">
+        <v>0</v>
+      </c>
+      <c r="F416" s="4">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>102</v>
+      </c>
+      <c r="B417" t="s">
+        <v>540</v>
+      </c>
+      <c r="C417" t="s">
+        <v>540</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E417" s="4">
+        <v>0</v>
+      </c>
+      <c r="F417" s="4">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
         <v>103</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B418" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+      <c r="C418" t="s">
+        <v>541</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E418" s="4">
+        <v>0</v>
+      </c>
+      <c r="F418" s="4">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
         <v>104</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B419" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+      <c r="C419" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E419" t="s">
+        <v>187</v>
+      </c>
+      <c r="F419" t="s">
+        <v>187</v>
+      </c>
+      <c r="G419" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
         <v>105</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B420" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+      <c r="C420" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E420" t="s">
+        <v>187</v>
+      </c>
+      <c r="F420" t="s">
+        <v>187</v>
+      </c>
+      <c r="G420" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
         <v>106</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B421" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+      <c r="C421" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E421" t="s">
+        <v>187</v>
+      </c>
+      <c r="F421" t="s">
+        <v>187</v>
+      </c>
+      <c r="G421" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
         <v>107</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B422" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+      <c r="C422" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E422" t="s">
+        <v>187</v>
+      </c>
+      <c r="F422" t="s">
+        <v>187</v>
+      </c>
+      <c r="G422" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
         <v>108</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B423" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+      <c r="C423" t="s">
+        <v>551</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>108</v>
+      </c>
+      <c r="B424" t="s">
+        <v>551</v>
+      </c>
+      <c r="C424" t="s">
+        <v>551</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>108</v>
+      </c>
+      <c r="B425" t="s">
+        <v>551</v>
+      </c>
+      <c r="C425" t="s">
+        <v>551</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
         <v>109</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B426" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+      <c r="C426" t="s">
+        <v>552</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>109</v>
+      </c>
+      <c r="B427" t="s">
+        <v>552</v>
+      </c>
+      <c r="C427" t="s">
+        <v>552</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
         <v>110</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B428" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+      <c r="C428" t="s">
+        <v>553</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>110</v>
+      </c>
+      <c r="B429" t="s">
+        <v>553</v>
+      </c>
+      <c r="C429" t="s">
+        <v>553</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
         <v>556</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B430" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+      <c r="C430" t="s">
+        <v>557</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>556</v>
+      </c>
+      <c r="B431" t="s">
+        <v>557</v>
+      </c>
+      <c r="C431" t="s">
+        <v>557</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>556</v>
+      </c>
+      <c r="B432" t="s">
+        <v>557</v>
+      </c>
+      <c r="C432" t="s">
+        <v>557</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>556</v>
+      </c>
+      <c r="B433" t="s">
+        <v>557</v>
+      </c>
+      <c r="C433" t="s">
+        <v>557</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
         <v>111</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B434" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+      <c r="C434" t="s">
+        <v>187</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E434" t="s">
+        <v>187</v>
+      </c>
+      <c r="F434" t="s">
+        <v>187</v>
+      </c>
+      <c r="G434" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
         <v>558</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B435" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+      <c r="C435" t="s">
+        <v>559</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>558</v>
+      </c>
+      <c r="B436" t="s">
+        <v>559</v>
+      </c>
+      <c r="C436" t="s">
+        <v>559</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>558</v>
+      </c>
+      <c r="B437" t="s">
+        <v>559</v>
+      </c>
+      <c r="C437" t="s">
+        <v>559</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>558</v>
+      </c>
+      <c r="B438" t="s">
+        <v>559</v>
+      </c>
+      <c r="C438" t="s">
+        <v>559</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
         <v>112</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B439" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+      <c r="C439" t="s">
+        <v>555</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>112</v>
+      </c>
+      <c r="B440" t="s">
+        <v>555</v>
+      </c>
+      <c r="C440" t="s">
+        <v>555</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
         <v>560</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B441" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+      <c r="C441" t="s">
+        <v>777</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>560</v>
+      </c>
+      <c r="B442" t="s">
+        <v>561</v>
+      </c>
+      <c r="C442" t="s">
+        <v>777</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>560</v>
+      </c>
+      <c r="B443" t="s">
+        <v>561</v>
+      </c>
+      <c r="C443" t="s">
+        <v>777</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
         <v>113</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B444" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
         <v>114</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B445" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
         <v>115</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B446" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
         <v>116</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B447" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
         <v>117</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B448" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
         <v>570</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B449" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
         <v>572</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B450" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
         <v>118</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B451" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
         <v>119</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B452" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
         <v>120</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B453" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
         <v>121</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B454" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
         <v>579</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B455" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
         <v>122</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B456" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
         <v>123</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B457" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
         <v>124</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B458" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
         <v>125</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B459" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
         <v>126</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B460" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
         <v>127</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B461" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
         <v>128</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B462" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
         <v>129</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B463" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
         <v>130</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B464" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>131</v>
-      </c>
-      <c r="B416" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>592</v>
-      </c>
-      <c r="B417" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>132</v>
-      </c>
-      <c r="B418" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>133</v>
-      </c>
-      <c r="B419" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>134</v>
-      </c>
-      <c r="B420" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>135</v>
-      </c>
-      <c r="B421" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>136</v>
-      </c>
-      <c r="B422" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>137</v>
-      </c>
-      <c r="B423" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>138</v>
-      </c>
-      <c r="B424" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>139</v>
-      </c>
-      <c r="B425" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>140</v>
-      </c>
-      <c r="B426" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>141</v>
-      </c>
-      <c r="B427" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>142</v>
-      </c>
-      <c r="B428" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>143</v>
-      </c>
-      <c r="B429" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>144</v>
-      </c>
-      <c r="B430" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>145</v>
-      </c>
-      <c r="B431" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>146</v>
-      </c>
-      <c r="B432" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>147</v>
-      </c>
-      <c r="B433" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>148</v>
-      </c>
-      <c r="B434" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>149</v>
-      </c>
-      <c r="B435" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>150</v>
-      </c>
-      <c r="B436" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>151</v>
-      </c>
-      <c r="B437" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>152</v>
-      </c>
-      <c r="B438" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>153</v>
-      </c>
-      <c r="B439" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>154</v>
-      </c>
-      <c r="B440" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>155</v>
-      </c>
-      <c r="B441" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>156</v>
-      </c>
-      <c r="B442" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>157</v>
-      </c>
-      <c r="B443" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>158</v>
-      </c>
-      <c r="B444" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>159</v>
-      </c>
-      <c r="B445" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>160</v>
-      </c>
-      <c r="B446" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>161</v>
-      </c>
-      <c r="B447" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>162</v>
-      </c>
-      <c r="B448" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>164</v>
-      </c>
-      <c r="B450" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>165</v>
-      </c>
-      <c r="B451" t="s">
-        <v>621</v>
-      </c>
-      <c r="C451" t="s">
-        <v>498</v>
-      </c>
-      <c r="D451" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E451">
-        <v>0</v>
-      </c>
-      <c r="F451">
-        <v>0</v>
-      </c>
-      <c r="G451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>165</v>
-      </c>
-      <c r="B452" t="s">
-        <v>621</v>
-      </c>
-      <c r="C452" t="s">
-        <v>498</v>
-      </c>
-      <c r="D452" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E452">
-        <v>0</v>
-      </c>
-      <c r="F452">
-        <v>0</v>
-      </c>
-      <c r="G452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>166</v>
-      </c>
-      <c r="B453" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>167</v>
-      </c>
-      <c r="B454" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>168</v>
-      </c>
-      <c r="B455" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>169</v>
-      </c>
-      <c r="B456" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>170</v>
-      </c>
-      <c r="B457" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>171</v>
-      </c>
-      <c r="B458" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>172</v>
-      </c>
-      <c r="B459" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>173</v>
-      </c>
-      <c r="B460" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>174</v>
-      </c>
-      <c r="B461" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>175</v>
-      </c>
-      <c r="B462" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>176</v>
-      </c>
-      <c r="B463" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>177</v>
-      </c>
-      <c r="B464" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="B465" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>179</v>
+        <v>592</v>
       </c>
       <c r="B466" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B467" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B468" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B469" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="B470" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B471" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
+        <v>137</v>
+      </c>
+      <c r="B472" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>138</v>
+      </c>
+      <c r="B473" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>139</v>
+      </c>
+      <c r="B474" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>140</v>
+      </c>
+      <c r="B475" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>141</v>
+      </c>
+      <c r="B476" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>142</v>
+      </c>
+      <c r="B477" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>143</v>
+      </c>
+      <c r="B478" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>144</v>
+      </c>
+      <c r="B479" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>145</v>
+      </c>
+      <c r="B480" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>146</v>
+      </c>
+      <c r="B481" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>147</v>
+      </c>
+      <c r="B482" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>148</v>
+      </c>
+      <c r="B483" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>149</v>
+      </c>
+      <c r="B484" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>150</v>
+      </c>
+      <c r="B485" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>151</v>
+      </c>
+      <c r="B486" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>152</v>
+      </c>
+      <c r="B487" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>153</v>
+      </c>
+      <c r="B488" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>154</v>
+      </c>
+      <c r="B489" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>155</v>
+      </c>
+      <c r="B490" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>156</v>
+      </c>
+      <c r="B491" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>157</v>
+      </c>
+      <c r="B492" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>158</v>
+      </c>
+      <c r="B493" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>159</v>
+      </c>
+      <c r="B494" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>160</v>
+      </c>
+      <c r="B495" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>161</v>
+      </c>
+      <c r="B496" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>162</v>
+      </c>
+      <c r="B497" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>164</v>
+      </c>
+      <c r="B499" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>165</v>
+      </c>
+      <c r="B500" t="s">
+        <v>621</v>
+      </c>
+      <c r="C500" t="s">
+        <v>498</v>
+      </c>
+      <c r="D500" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>165</v>
+      </c>
+      <c r="B501" t="s">
+        <v>621</v>
+      </c>
+      <c r="C501" t="s">
+        <v>498</v>
+      </c>
+      <c r="D501" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>166</v>
+      </c>
+      <c r="B502" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>167</v>
+      </c>
+      <c r="B503" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>168</v>
+      </c>
+      <c r="B504" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>169</v>
+      </c>
+      <c r="B505" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B506" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>171</v>
+      </c>
+      <c r="B507" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>172</v>
+      </c>
+      <c r="B508" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>173</v>
+      </c>
+      <c r="B509" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>174</v>
+      </c>
+      <c r="B510" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>175</v>
+      </c>
+      <c r="B511" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>176</v>
+      </c>
+      <c r="B512" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>177</v>
+      </c>
+      <c r="B513" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>178</v>
+      </c>
+      <c r="B514" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>179</v>
+      </c>
+      <c r="B515" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>180</v>
+      </c>
+      <c r="B516" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>181</v>
+      </c>
+      <c r="B517" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>182</v>
+      </c>
+      <c r="B518" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>183</v>
+      </c>
+      <c r="B519" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>184</v>
+      </c>
+      <c r="B520" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
         <v>185</v>
       </c>
     </row>

--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>

--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="861">
   <si>
     <t>especie_SERNAPESCA</t>
   </si>
@@ -2546,13 +2546,253 @@
   </si>
   <si>
     <t>1605.5100</t>
+  </si>
+  <si>
+    <t>0307.5110</t>
+  </si>
+  <si>
+    <t>Octopus mimus</t>
+  </si>
+  <si>
+    <t>0307.5210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enteroctopus megalocyathus</t>
+  </si>
+  <si>
+    <t>0307.5120</t>
+  </si>
+  <si>
+    <t>0307.5220</t>
+  </si>
+  <si>
+    <t>0307.7214</t>
+  </si>
+  <si>
+    <t>0306.1711</t>
+  </si>
+  <si>
+    <t>0306.3611</t>
+  </si>
+  <si>
+    <t>1605.2111</t>
+  </si>
+  <si>
+    <t>1605.2121</t>
+  </si>
+  <si>
+    <t>1605.2911</t>
+  </si>
+  <si>
+    <t>0306.1713</t>
+  </si>
+  <si>
+    <t>0306.3613</t>
+  </si>
+  <si>
+    <t>1605.2113</t>
+  </si>
+  <si>
+    <t>1605.2123</t>
+  </si>
+  <si>
+    <t>1605.2913</t>
+  </si>
+  <si>
+    <t>0306.1712</t>
+  </si>
+  <si>
+    <t>0306.3612</t>
+  </si>
+  <si>
+    <t>1605.2112</t>
+  </si>
+  <si>
+    <t>1605.2122</t>
+  </si>
+  <si>
+    <t>1605.2912</t>
+  </si>
+  <si>
+    <t>0306.1421</t>
+  </si>
+  <si>
+    <t>0306.3321</t>
+  </si>
+  <si>
+    <t>1605.1022</t>
+  </si>
+  <si>
+    <t>1605.1026</t>
+  </si>
+  <si>
+    <t>0306.1423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTOLLON DEL NORTE                      </t>
+  </si>
+  <si>
+    <t>Paralomis spp</t>
+  </si>
+  <si>
+    <t>0306.1424</t>
+  </si>
+  <si>
+    <t>0306.3323</t>
+  </si>
+  <si>
+    <t>0306.3324</t>
+  </si>
+  <si>
+    <t>1605.1023</t>
+  </si>
+  <si>
+    <t>1605.1024</t>
+  </si>
+  <si>
+    <t>1605.1028</t>
+  </si>
+  <si>
+    <t>1605.1029</t>
+  </si>
+  <si>
+    <t>0306.1791</t>
+  </si>
+  <si>
+    <t>0306.3691</t>
+  </si>
+  <si>
+    <t>1605.2151</t>
+  </si>
+  <si>
+    <t>1605.2161</t>
+  </si>
+  <si>
+    <t>1605.2931</t>
+  </si>
+  <si>
+    <t>0306.1410</t>
+  </si>
+  <si>
+    <t>0306.3310</t>
+  </si>
+  <si>
+    <t>1605.1011</t>
+  </si>
+  <si>
+    <t>1605.1012</t>
+  </si>
+  <si>
+    <t>1605.1019</t>
+  </si>
+  <si>
+    <t>0306.1110</t>
+  </si>
+  <si>
+    <t>0306.3110</t>
+  </si>
+  <si>
+    <t>0306.3120</t>
+  </si>
+  <si>
+    <t>0306.1120</t>
+  </si>
+  <si>
+    <t>0306.1721</t>
+  </si>
+  <si>
+    <t>0306.3621</t>
+  </si>
+  <si>
+    <t>1605.2131</t>
+  </si>
+  <si>
+    <t>1605.2141</t>
+  </si>
+  <si>
+    <t>0306.1722</t>
+  </si>
+  <si>
+    <t>0306.3622</t>
+  </si>
+  <si>
+    <t>1605.2132</t>
+  </si>
+  <si>
+    <t>1605.2142</t>
+  </si>
+  <si>
+    <t>0302.3400</t>
+  </si>
+  <si>
+    <t>0303.4400</t>
+  </si>
+  <si>
+    <t>0304.4920</t>
+  </si>
+  <si>
+    <t>0304.8920</t>
+  </si>
+  <si>
+    <t>0305.3960</t>
+  </si>
+  <si>
+    <t>0303.8961</t>
+  </si>
+  <si>
+    <t>0303.8962</t>
+  </si>
+  <si>
+    <t>0303.8969</t>
+  </si>
+  <si>
+    <t>0302.8141</t>
+  </si>
+  <si>
+    <t>0302.9241</t>
+  </si>
+  <si>
+    <t>0303.8141</t>
+  </si>
+  <si>
+    <t>0303.9241</t>
+  </si>
+  <si>
+    <t>0304.4741</t>
+  </si>
+  <si>
+    <t>0304.5641</t>
+  </si>
+  <si>
+    <t>0304.8841</t>
+  </si>
+  <si>
+    <t>0304.9641</t>
+  </si>
+  <si>
+    <t>0305.7141</t>
+  </si>
+  <si>
+    <t>0307.5190</t>
+  </si>
+  <si>
+    <t>Octopus spp</t>
+  </si>
+  <si>
+    <t>0307.5290</t>
+  </si>
+  <si>
+    <t>0306.1130</t>
+  </si>
+  <si>
+    <t>0306.3130</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2613,6 +2853,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2637,7 +2884,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2647,8 +2894,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2664,16 +2913,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2986,11 +3238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H573" sqref="H573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13199,462 +13451,1305 @@
       <c r="B444" t="s">
         <v>563</v>
       </c>
+      <c r="C444" t="s">
+        <v>782</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B445" t="s">
-        <v>564</v>
+        <v>563</v>
+      </c>
+      <c r="C445" t="s">
+        <v>782</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B446" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="C446" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B447" t="s">
-        <v>566</v>
+        <v>564</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
+        <v>115</v>
+      </c>
+      <c r="B448" t="s">
+        <v>565</v>
+      </c>
+      <c r="C448" t="s">
+        <v>187</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E448" t="s">
+        <v>187</v>
+      </c>
+      <c r="F448" t="s">
+        <v>187</v>
+      </c>
+      <c r="G448" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>116</v>
+      </c>
+      <c r="B449" t="s">
+        <v>566</v>
+      </c>
+      <c r="C449" t="s">
+        <v>566</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
         <v>117</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B450" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+      <c r="C450" t="s">
+        <v>567</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>117</v>
+      </c>
+      <c r="B451" t="s">
+        <v>567</v>
+      </c>
+      <c r="C451" t="s">
+        <v>567</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>117</v>
+      </c>
+      <c r="B452" t="s">
+        <v>567</v>
+      </c>
+      <c r="C452" t="s">
+        <v>567</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>1</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>117</v>
+      </c>
+      <c r="B453" t="s">
+        <v>567</v>
+      </c>
+      <c r="C453" t="s">
+        <v>567</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>117</v>
+      </c>
+      <c r="B454" t="s">
+        <v>567</v>
+      </c>
+      <c r="C454" t="s">
+        <v>567</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
         <v>570</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B455" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+      <c r="C455" t="s">
+        <v>571</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>570</v>
+      </c>
+      <c r="B456" t="s">
+        <v>571</v>
+      </c>
+      <c r="C456" t="s">
+        <v>571</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>570</v>
+      </c>
+      <c r="B457" t="s">
+        <v>571</v>
+      </c>
+      <c r="C457" t="s">
+        <v>571</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>570</v>
+      </c>
+      <c r="B458" t="s">
+        <v>571</v>
+      </c>
+      <c r="C458" t="s">
+        <v>571</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>570</v>
+      </c>
+      <c r="B459" t="s">
+        <v>571</v>
+      </c>
+      <c r="C459" t="s">
+        <v>571</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
         <v>572</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B460" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
+      <c r="C460" t="s">
+        <v>573</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>572</v>
+      </c>
+      <c r="B461" t="s">
+        <v>573</v>
+      </c>
+      <c r="C461" t="s">
+        <v>573</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>572</v>
+      </c>
+      <c r="B462" t="s">
+        <v>573</v>
+      </c>
+      <c r="C462" t="s">
+        <v>573</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>572</v>
+      </c>
+      <c r="B463" t="s">
+        <v>573</v>
+      </c>
+      <c r="C463" t="s">
+        <v>573</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>572</v>
+      </c>
+      <c r="B464" t="s">
+        <v>573</v>
+      </c>
+      <c r="C464" t="s">
+        <v>573</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
         <v>118</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B465" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+      <c r="C465" t="s">
+        <v>187</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E465" t="s">
+        <v>187</v>
+      </c>
+      <c r="F465" t="s">
+        <v>187</v>
+      </c>
+      <c r="G465" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
         <v>119</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B466" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+      <c r="C466" t="s">
+        <v>575</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>119</v>
+      </c>
+      <c r="B467" t="s">
+        <v>575</v>
+      </c>
+      <c r="C467" t="s">
+        <v>575</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>119</v>
+      </c>
+      <c r="B468" t="s">
+        <v>575</v>
+      </c>
+      <c r="C468" t="s">
+        <v>575</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B469" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
         <v>120</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B470" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+      <c r="C470" t="s">
+        <v>577</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>808</v>
+      </c>
+      <c r="B471" t="s">
+        <v>187</v>
+      </c>
+      <c r="C471" t="s">
+        <v>809</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>120</v>
+      </c>
+      <c r="B472" t="s">
+        <v>577</v>
+      </c>
+      <c r="C472" t="s">
+        <v>577</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>808</v>
+      </c>
+      <c r="B473" t="s">
+        <v>187</v>
+      </c>
+      <c r="C473" t="s">
+        <v>809</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>120</v>
+      </c>
+      <c r="B474" t="s">
+        <v>577</v>
+      </c>
+      <c r="C474" t="s">
+        <v>577</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>808</v>
+      </c>
+      <c r="B475" t="s">
+        <v>187</v>
+      </c>
+      <c r="C475" t="s">
+        <v>809</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>120</v>
+      </c>
+      <c r="B476" t="s">
+        <v>577</v>
+      </c>
+      <c r="C476" t="s">
+        <v>577</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>808</v>
+      </c>
+      <c r="B477" t="s">
+        <v>187</v>
+      </c>
+      <c r="C477" t="s">
+        <v>809</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
         <v>121</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B478" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+      <c r="C478" t="s">
+        <v>578</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>121</v>
+      </c>
+      <c r="B479" t="s">
+        <v>578</v>
+      </c>
+      <c r="C479" t="s">
+        <v>578</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>121</v>
+      </c>
+      <c r="B480" t="s">
+        <v>578</v>
+      </c>
+      <c r="C480" t="s">
+        <v>578</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>121</v>
+      </c>
+      <c r="B481" t="s">
+        <v>578</v>
+      </c>
+      <c r="C481" t="s">
+        <v>578</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>121</v>
+      </c>
+      <c r="B482" t="s">
+        <v>578</v>
+      </c>
+      <c r="C482" t="s">
+        <v>578</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
         <v>579</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B483" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+      <c r="C483" t="s">
+        <v>580</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>579</v>
+      </c>
+      <c r="B484" t="s">
+        <v>580</v>
+      </c>
+      <c r="C484" t="s">
+        <v>580</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>579</v>
+      </c>
+      <c r="B485" t="s">
+        <v>580</v>
+      </c>
+      <c r="C485" t="s">
+        <v>580</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>579</v>
+      </c>
+      <c r="B486" t="s">
+        <v>580</v>
+      </c>
+      <c r="C486" t="s">
+        <v>580</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>579</v>
+      </c>
+      <c r="B487" t="s">
+        <v>580</v>
+      </c>
+      <c r="C487" t="s">
+        <v>580</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
         <v>122</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B488" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+      <c r="C488" t="s">
+        <v>581</v>
+      </c>
+      <c r="D488" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>122</v>
+      </c>
+      <c r="B489" t="s">
+        <v>581</v>
+      </c>
+      <c r="C489" t="s">
+        <v>581</v>
+      </c>
+      <c r="D489" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>122</v>
+      </c>
+      <c r="B490" t="s">
+        <v>581</v>
+      </c>
+      <c r="C490" t="s">
+        <v>581</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>122</v>
+      </c>
+      <c r="B491" t="s">
+        <v>581</v>
+      </c>
+      <c r="C491" t="s">
+        <v>581</v>
+      </c>
+      <c r="D491" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>122</v>
+      </c>
+      <c r="B492" t="s">
+        <v>581</v>
+      </c>
+      <c r="C492" t="s">
+        <v>581</v>
+      </c>
+      <c r="D492" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
         <v>123</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B493" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>124</v>
-      </c>
-      <c r="B458" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>125</v>
-      </c>
-      <c r="B459" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>126</v>
-      </c>
-      <c r="B460" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>127</v>
-      </c>
-      <c r="B461" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>128</v>
-      </c>
-      <c r="B462" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>129</v>
-      </c>
-      <c r="B463" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>130</v>
-      </c>
-      <c r="B464" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>131</v>
-      </c>
-      <c r="B465" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>592</v>
-      </c>
-      <c r="B466" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>132</v>
-      </c>
-      <c r="B467" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>133</v>
-      </c>
-      <c r="B468" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>134</v>
-      </c>
-      <c r="B469" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>135</v>
-      </c>
-      <c r="B470" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>136</v>
-      </c>
-      <c r="B471" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>137</v>
-      </c>
-      <c r="B472" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>138</v>
-      </c>
-      <c r="B473" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>139</v>
-      </c>
-      <c r="B474" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
-        <v>140</v>
-      </c>
-      <c r="B475" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
-        <v>141</v>
-      </c>
-      <c r="B476" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
-        <v>142</v>
-      </c>
-      <c r="B477" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>143</v>
-      </c>
-      <c r="B478" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
-        <v>144</v>
-      </c>
-      <c r="B479" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
-        <v>145</v>
-      </c>
-      <c r="B480" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
-        <v>146</v>
-      </c>
-      <c r="B481" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>147</v>
-      </c>
-      <c r="B482" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>148</v>
-      </c>
-      <c r="B483" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>149</v>
-      </c>
-      <c r="B484" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>150</v>
-      </c>
-      <c r="B485" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>151</v>
-      </c>
-      <c r="B486" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
-        <v>152</v>
-      </c>
-      <c r="B487" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
-        <v>153</v>
-      </c>
-      <c r="B488" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>154</v>
-      </c>
-      <c r="B489" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>155</v>
-      </c>
-      <c r="B490" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>156</v>
-      </c>
-      <c r="B491" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>157</v>
-      </c>
-      <c r="B492" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>158</v>
-      </c>
-      <c r="B493" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C493" t="s">
+        <v>582</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B494" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="C494" t="s">
+        <v>582</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B495" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="C495" t="s">
+        <v>582</v>
+      </c>
+      <c r="D495" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B496" t="s">
-        <v>619</v>
+        <v>582</v>
+      </c>
+      <c r="C496" t="s">
+        <v>582</v>
+      </c>
+      <c r="D496" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B497" t="s">
-        <v>569</v>
+        <v>582</v>
+      </c>
+      <c r="C497" t="s">
+        <v>582</v>
+      </c>
+      <c r="D497" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="B498" t="s">
+        <v>583</v>
+      </c>
+      <c r="C498" t="s">
+        <v>583</v>
+      </c>
+      <c r="D498" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B499" t="s">
-        <v>620</v>
+        <v>583</v>
+      </c>
+      <c r="C499" t="s">
+        <v>583</v>
+      </c>
+      <c r="D499" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B500" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C500" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>499</v>
+        <v>824</v>
       </c>
       <c r="E500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -13662,22 +14757,22 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B501" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C501" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>190</v>
+        <v>825</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -13685,158 +14780,1969 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B502" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="C502" t="s">
+        <v>583</v>
+      </c>
+      <c r="D502" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B503" t="s">
-        <v>623</v>
+        <v>584</v>
+      </c>
+      <c r="C503" t="s">
+        <v>187</v>
+      </c>
+      <c r="D503" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E503" t="s">
+        <v>187</v>
+      </c>
+      <c r="F503" t="s">
+        <v>187</v>
+      </c>
+      <c r="G503" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B504" t="s">
-        <v>624</v>
+        <v>588</v>
+      </c>
+      <c r="C504" t="s">
+        <v>588</v>
+      </c>
+      <c r="D504" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B505" t="s">
-        <v>187</v>
+        <v>588</v>
+      </c>
+      <c r="C505" t="s">
+        <v>588</v>
+      </c>
+      <c r="D505" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A506" s="12" t="s">
-        <v>170</v>
+      <c r="A506" t="s">
+        <v>126</v>
       </c>
       <c r="B506" t="s">
-        <v>625</v>
+        <v>588</v>
+      </c>
+      <c r="C506" t="s">
+        <v>588</v>
+      </c>
+      <c r="D506" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B507" t="s">
-        <v>626</v>
+        <v>588</v>
+      </c>
+      <c r="C507" t="s">
+        <v>588</v>
+      </c>
+      <c r="D507" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B508" t="s">
-        <v>576</v>
+        <v>588</v>
+      </c>
+      <c r="C508" t="s">
+        <v>588</v>
+      </c>
+      <c r="D508" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>1</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B509" t="s">
-        <v>627</v>
+        <v>589</v>
+      </c>
+      <c r="C509" t="s">
+        <v>187</v>
+      </c>
+      <c r="D509" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E509" t="s">
+        <v>187</v>
+      </c>
+      <c r="F509" t="s">
+        <v>187</v>
+      </c>
+      <c r="G509" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B510" t="s">
-        <v>628</v>
+        <v>590</v>
+      </c>
+      <c r="C510" t="s">
+        <v>187</v>
+      </c>
+      <c r="D510" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E510" t="s">
+        <v>187</v>
+      </c>
+      <c r="F510" t="s">
+        <v>187</v>
+      </c>
+      <c r="G510" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B511" t="s">
-        <v>629</v>
+        <v>585</v>
+      </c>
+      <c r="C511" t="s">
+        <v>585</v>
+      </c>
+      <c r="D511" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
+        <v>129</v>
+      </c>
+      <c r="B512" t="s">
+        <v>585</v>
+      </c>
+      <c r="C512" t="s">
+        <v>585</v>
+      </c>
+      <c r="D512" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>129</v>
+      </c>
+      <c r="B513" t="s">
+        <v>585</v>
+      </c>
+      <c r="C513" t="s">
+        <v>585</v>
+      </c>
+      <c r="D513" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>129</v>
+      </c>
+      <c r="B514" t="s">
+        <v>585</v>
+      </c>
+      <c r="C514" t="s">
+        <v>585</v>
+      </c>
+      <c r="D514" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>129</v>
+      </c>
+      <c r="B515" t="s">
+        <v>585</v>
+      </c>
+      <c r="C515" t="s">
+        <v>585</v>
+      </c>
+      <c r="D515" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>130</v>
+      </c>
+      <c r="B516" t="s">
+        <v>586</v>
+      </c>
+      <c r="C516" t="s">
+        <v>586</v>
+      </c>
+      <c r="D516" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>130</v>
+      </c>
+      <c r="B517" t="s">
+        <v>586</v>
+      </c>
+      <c r="C517" t="s">
+        <v>586</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>130</v>
+      </c>
+      <c r="B518" t="s">
+        <v>586</v>
+      </c>
+      <c r="C518" t="s">
+        <v>586</v>
+      </c>
+      <c r="D518" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>130</v>
+      </c>
+      <c r="B519" t="s">
+        <v>586</v>
+      </c>
+      <c r="C519" t="s">
+        <v>586</v>
+      </c>
+      <c r="D519" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>130</v>
+      </c>
+      <c r="B520" t="s">
+        <v>586</v>
+      </c>
+      <c r="C520" t="s">
+        <v>586</v>
+      </c>
+      <c r="D520" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B521" t="s">
+        <v>587</v>
+      </c>
+      <c r="C521" t="s">
+        <v>587</v>
+      </c>
+      <c r="D521" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B522" t="s">
+        <v>587</v>
+      </c>
+      <c r="C522" t="s">
+        <v>587</v>
+      </c>
+      <c r="D522" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B523" t="s">
+        <v>587</v>
+      </c>
+      <c r="C523" t="s">
+        <v>587</v>
+      </c>
+      <c r="D523" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B524" t="s">
+        <v>587</v>
+      </c>
+      <c r="C524" t="s">
+        <v>587</v>
+      </c>
+      <c r="D524" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B525" t="s">
+        <v>587</v>
+      </c>
+      <c r="C525" t="s">
+        <v>587</v>
+      </c>
+      <c r="D525" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B526" t="s">
+        <v>593</v>
+      </c>
+      <c r="C526" t="s">
+        <v>593</v>
+      </c>
+      <c r="D526" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B527" t="s">
+        <v>593</v>
+      </c>
+      <c r="C527" t="s">
+        <v>593</v>
+      </c>
+      <c r="D527" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>132</v>
+      </c>
+      <c r="B528" t="s">
+        <v>594</v>
+      </c>
+      <c r="C528" t="s">
+        <v>594</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>132</v>
+      </c>
+      <c r="B529" t="s">
+        <v>594</v>
+      </c>
+      <c r="C529" t="s">
+        <v>594</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>133</v>
+      </c>
+      <c r="B530" t="s">
+        <v>596</v>
+      </c>
+      <c r="C530" t="s">
+        <v>596</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>133</v>
+      </c>
+      <c r="B531" t="s">
+        <v>596</v>
+      </c>
+      <c r="C531" t="s">
+        <v>596</v>
+      </c>
+      <c r="D531" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>133</v>
+      </c>
+      <c r="B532" t="s">
+        <v>596</v>
+      </c>
+      <c r="C532" t="s">
+        <v>596</v>
+      </c>
+      <c r="D532" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>133</v>
+      </c>
+      <c r="B533" t="s">
+        <v>596</v>
+      </c>
+      <c r="C533" t="s">
+        <v>596</v>
+      </c>
+      <c r="D533" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>134</v>
+      </c>
+      <c r="B534" t="s">
+        <v>597</v>
+      </c>
+      <c r="C534" t="s">
+        <v>597</v>
+      </c>
+      <c r="D534" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>134</v>
+      </c>
+      <c r="B535" t="s">
+        <v>597</v>
+      </c>
+      <c r="C535" t="s">
+        <v>597</v>
+      </c>
+      <c r="D535" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>134</v>
+      </c>
+      <c r="B536" t="s">
+        <v>597</v>
+      </c>
+      <c r="C536" t="s">
+        <v>597</v>
+      </c>
+      <c r="D536" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>134</v>
+      </c>
+      <c r="B537" t="s">
+        <v>597</v>
+      </c>
+      <c r="C537" t="s">
+        <v>597</v>
+      </c>
+      <c r="D537" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>135</v>
+      </c>
+      <c r="B538" t="s">
+        <v>598</v>
+      </c>
+      <c r="C538" t="s">
+        <v>187</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E538" t="s">
+        <v>187</v>
+      </c>
+      <c r="F538" t="s">
+        <v>187</v>
+      </c>
+      <c r="G538" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>136</v>
+      </c>
+      <c r="B539" t="s">
+        <v>599</v>
+      </c>
+      <c r="C539" t="s">
+        <v>187</v>
+      </c>
+      <c r="D539" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E539" t="s">
+        <v>187</v>
+      </c>
+      <c r="F539" t="s">
+        <v>187</v>
+      </c>
+      <c r="G539" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>137</v>
+      </c>
+      <c r="B540" t="s">
+        <v>600</v>
+      </c>
+      <c r="C540" t="s">
+        <v>187</v>
+      </c>
+      <c r="D540" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E540" t="s">
+        <v>187</v>
+      </c>
+      <c r="F540" t="s">
+        <v>187</v>
+      </c>
+      <c r="G540" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>138</v>
+      </c>
+      <c r="B541" t="s">
+        <v>601</v>
+      </c>
+      <c r="C541" t="s">
+        <v>601</v>
+      </c>
+      <c r="D541" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>138</v>
+      </c>
+      <c r="B542" t="s">
+        <v>601</v>
+      </c>
+      <c r="C542" t="s">
+        <v>601</v>
+      </c>
+      <c r="D542" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>139</v>
+      </c>
+      <c r="B543" t="s">
+        <v>602</v>
+      </c>
+      <c r="C543" t="s">
+        <v>602</v>
+      </c>
+      <c r="D543" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>139</v>
+      </c>
+      <c r="B544" t="s">
+        <v>602</v>
+      </c>
+      <c r="C544" t="s">
+        <v>602</v>
+      </c>
+      <c r="D544" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>139</v>
+      </c>
+      <c r="B545" t="s">
+        <v>602</v>
+      </c>
+      <c r="C545" t="s">
+        <v>602</v>
+      </c>
+      <c r="D545" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>140</v>
+      </c>
+      <c r="B546" t="s">
+        <v>187</v>
+      </c>
+      <c r="C546" t="s">
+        <v>187</v>
+      </c>
+      <c r="D546" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E546" t="s">
+        <v>187</v>
+      </c>
+      <c r="F546" t="s">
+        <v>187</v>
+      </c>
+      <c r="G546" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>141</v>
+      </c>
+      <c r="B547" t="s">
+        <v>603</v>
+      </c>
+      <c r="C547" t="s">
+        <v>603</v>
+      </c>
+      <c r="D547" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>141</v>
+      </c>
+      <c r="B548" t="s">
+        <v>603</v>
+      </c>
+      <c r="C548" t="s">
+        <v>603</v>
+      </c>
+      <c r="D548" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>141</v>
+      </c>
+      <c r="B549" t="s">
+        <v>603</v>
+      </c>
+      <c r="C549" t="s">
+        <v>603</v>
+      </c>
+      <c r="D549" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>142</v>
+      </c>
+      <c r="B550" t="s">
+        <v>604</v>
+      </c>
+      <c r="C550" t="s">
+        <v>604</v>
+      </c>
+      <c r="D550" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>142</v>
+      </c>
+      <c r="B551" t="s">
+        <v>604</v>
+      </c>
+      <c r="C551" t="s">
+        <v>604</v>
+      </c>
+      <c r="D551" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>142</v>
+      </c>
+      <c r="B552" t="s">
+        <v>604</v>
+      </c>
+      <c r="C552" t="s">
+        <v>604</v>
+      </c>
+      <c r="D552" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>142</v>
+      </c>
+      <c r="B553" t="s">
+        <v>604</v>
+      </c>
+      <c r="C553" t="s">
+        <v>604</v>
+      </c>
+      <c r="D553" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>142</v>
+      </c>
+      <c r="B554" t="s">
+        <v>604</v>
+      </c>
+      <c r="C554" t="s">
+        <v>604</v>
+      </c>
+      <c r="D554" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>142</v>
+      </c>
+      <c r="B555" t="s">
+        <v>604</v>
+      </c>
+      <c r="C555" t="s">
+        <v>604</v>
+      </c>
+      <c r="D555" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>143</v>
+      </c>
+      <c r="B556" t="s">
+        <v>605</v>
+      </c>
+      <c r="C556" t="s">
+        <v>187</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E556" t="s">
+        <v>187</v>
+      </c>
+      <c r="F556" t="s">
+        <v>187</v>
+      </c>
+      <c r="G556" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>144</v>
+      </c>
+      <c r="B557" t="s">
+        <v>606</v>
+      </c>
+      <c r="C557" t="s">
+        <v>606</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>144</v>
+      </c>
+      <c r="B558" t="s">
+        <v>606</v>
+      </c>
+      <c r="C558" t="s">
+        <v>606</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>144</v>
+      </c>
+      <c r="B559" t="s">
+        <v>606</v>
+      </c>
+      <c r="C559" t="s">
+        <v>606</v>
+      </c>
+      <c r="D559" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+      <c r="F559">
+        <v>0</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>144</v>
+      </c>
+      <c r="B560" t="s">
+        <v>606</v>
+      </c>
+      <c r="C560" t="s">
+        <v>606</v>
+      </c>
+      <c r="D560" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>0</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>144</v>
+      </c>
+      <c r="B561" t="s">
+        <v>606</v>
+      </c>
+      <c r="C561" t="s">
+        <v>606</v>
+      </c>
+      <c r="D561" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>144</v>
+      </c>
+      <c r="B562" t="s">
+        <v>606</v>
+      </c>
+      <c r="C562" t="s">
+        <v>606</v>
+      </c>
+      <c r="D562" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>144</v>
+      </c>
+      <c r="B563" t="s">
+        <v>606</v>
+      </c>
+      <c r="C563" t="s">
+        <v>606</v>
+      </c>
+      <c r="D563" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>144</v>
+      </c>
+      <c r="B564" t="s">
+        <v>606</v>
+      </c>
+      <c r="C564" t="s">
+        <v>606</v>
+      </c>
+      <c r="D564" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>144</v>
+      </c>
+      <c r="B565" t="s">
+        <v>606</v>
+      </c>
+      <c r="C565" t="s">
+        <v>606</v>
+      </c>
+      <c r="D565" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>145</v>
+      </c>
+      <c r="B566" t="s">
+        <v>607</v>
+      </c>
+      <c r="C566" t="s">
+        <v>187</v>
+      </c>
+      <c r="D566" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E566" t="s">
+        <v>187</v>
+      </c>
+      <c r="F566" t="s">
+        <v>187</v>
+      </c>
+      <c r="G566" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>146</v>
+      </c>
+      <c r="B567" t="s">
+        <v>546</v>
+      </c>
+      <c r="C567" t="s">
+        <v>541</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>147</v>
+      </c>
+      <c r="B568" t="s">
+        <v>562</v>
+      </c>
+      <c r="C568" t="s">
+        <v>857</v>
+      </c>
+      <c r="D568" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>147</v>
+      </c>
+      <c r="B569" t="s">
+        <v>562</v>
+      </c>
+      <c r="C569" t="s">
+        <v>857</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>148</v>
+      </c>
+      <c r="B570" t="s">
+        <v>568</v>
+      </c>
+      <c r="C570" t="s">
+        <v>187</v>
+      </c>
+      <c r="D570" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E570" t="s">
+        <v>187</v>
+      </c>
+      <c r="F570" t="s">
+        <v>187</v>
+      </c>
+      <c r="G570" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>149</v>
+      </c>
+      <c r="B571" t="s">
+        <v>595</v>
+      </c>
+      <c r="C571" t="s">
+        <v>595</v>
+      </c>
+      <c r="D571" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>149</v>
+      </c>
+      <c r="B572" t="s">
+        <v>595</v>
+      </c>
+      <c r="C572" t="s">
+        <v>595</v>
+      </c>
+      <c r="D572" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A573" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B573" t="s">
+        <v>608</v>
+      </c>
+      <c r="C573" t="s">
+        <v>187</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E573" t="s">
+        <v>187</v>
+      </c>
+      <c r="F573" t="s">
+        <v>187</v>
+      </c>
+      <c r="G573" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>151</v>
+      </c>
+      <c r="B574" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>152</v>
+      </c>
+      <c r="B575" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>153</v>
+      </c>
+      <c r="B576" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>154</v>
+      </c>
+      <c r="B577" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>155</v>
+      </c>
+      <c r="B578" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>156</v>
+      </c>
+      <c r="B579" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>157</v>
+      </c>
+      <c r="B580" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>158</v>
+      </c>
+      <c r="B581" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>159</v>
+      </c>
+      <c r="B582" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>160</v>
+      </c>
+      <c r="B583" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>161</v>
+      </c>
+      <c r="B584" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>162</v>
+      </c>
+      <c r="B585" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>164</v>
+      </c>
+      <c r="B587" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>165</v>
+      </c>
+      <c r="B588" t="s">
+        <v>621</v>
+      </c>
+      <c r="C588" t="s">
+        <v>498</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>165</v>
+      </c>
+      <c r="B589" t="s">
+        <v>621</v>
+      </c>
+      <c r="C589" t="s">
+        <v>498</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>166</v>
+      </c>
+      <c r="B590" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>167</v>
+      </c>
+      <c r="B591" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>168</v>
+      </c>
+      <c r="B592" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>169</v>
+      </c>
+      <c r="B593" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B594" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>171</v>
+      </c>
+      <c r="B595" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>172</v>
+      </c>
+      <c r="B596" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>173</v>
+      </c>
+      <c r="B597" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>174</v>
+      </c>
+      <c r="B598" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>175</v>
+      </c>
+      <c r="B599" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
         <v>176</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B600" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
         <v>177</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B601" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
         <v>178</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B602" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
         <v>179</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B603" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
         <v>180</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B604" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
         <v>181</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B605" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
         <v>182</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B606" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
         <v>183</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B607" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
         <v>184</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B608" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
         <v>185</v>
       </c>
     </row>

--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -2792,7 +2792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,13 +2847,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2897,7 +2890,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2913,7 +2906,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -3241,8 +3233,8 @@
   <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H573" sqref="H573"/>
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B608" sqref="B608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13380,7 +13372,7 @@
         <v>560</v>
       </c>
       <c r="B441" t="s">
-        <v>561</v>
+        <v>777</v>
       </c>
       <c r="C441" t="s">
         <v>777</v>
@@ -13403,7 +13395,7 @@
         <v>560</v>
       </c>
       <c r="B442" t="s">
-        <v>561</v>
+        <v>777</v>
       </c>
       <c r="C442" t="s">
         <v>777</v>
@@ -13426,7 +13418,7 @@
         <v>560</v>
       </c>
       <c r="B443" t="s">
-        <v>561</v>
+        <v>777</v>
       </c>
       <c r="C443" t="s">
         <v>777</v>
@@ -14020,13 +14012,13 @@
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A469" s="13" t="s">
+      <c r="A469" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B469" s="13" t="s">
+      <c r="B469" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C469" s="13" t="s">
+      <c r="C469" s="12" t="s">
         <v>575</v>
       </c>
       <c r="D469" s="6" t="s">
@@ -16412,7 +16404,7 @@
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A573" s="12" t="s">
+      <c r="A573" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B573" t="s">

--- a/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
+++ b/information/raw_databases/ADUANAS_CHILE/arancel_aduanero_nomenclatura/arancel_aduanero_2017/codigos_aduana_por_especie_2017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacia Rivera\Desktop\GitHub\main-fisheries-chile\information\raw_databases\ADUANAS_CHILE\arancel_aduanero_nomenclatura\arancel_aduanero_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D01797-1E49-4BA1-804F-A136DC4F602E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADC6B4-B82A-4CC4-ABD9-DB1CE8941192}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Productos en aduana y no SERNAP" sheetId="2" r:id="rId2"/>
     <sheet name="Pregunta" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1584,16 +1584,10 @@
     <t>Sciaena deliciosa</t>
   </si>
   <si>
-    <t> Oncorhynchus tshawytscha</t>
-  </si>
-  <si>
     <t>0304.9941</t>
   </si>
   <si>
     <t>0304.9942</t>
-  </si>
-  <si>
-    <t>Salmones del Pacífico</t>
   </si>
   <si>
     <t>0305.2010</t>
@@ -3063,6 +3057,12 @@
   </si>
   <si>
     <t>Cubiceps</t>
+  </si>
+  <si>
+    <t>Oncorhynchus tshawytscha</t>
+  </si>
+  <si>
+    <t>Salmones del Pacifico</t>
   </si>
 </sst>
 </file>
@@ -3552,7 +3552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A574" sqref="A574:G703"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4634,7 @@
         <v>239</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -9412,13 +9412,13 @@
         <v>75</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -9435,13 +9435,13 @@
         <v>75</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -9458,13 +9458,13 @@
         <v>75</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -9481,13 +9481,13 @@
         <v>75</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C258" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -9504,13 +9504,13 @@
         <v>75</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -9527,13 +9527,13 @@
         <v>75</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -9550,13 +9550,13 @@
         <v>75</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -9573,13 +9573,13 @@
         <v>75</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -9596,13 +9596,13 @@
         <v>75</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -9619,13 +9619,13 @@
         <v>75</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -9642,13 +9642,13 @@
         <v>75</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9665,13 +9665,13 @@
         <v>75</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9688,13 +9688,13 @@
         <v>75</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -9711,13 +9711,13 @@
         <v>75</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -9734,13 +9734,13 @@
         <v>75</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -9757,13 +9757,13 @@
         <v>75</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -9780,13 +9780,13 @@
         <v>75</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -9803,13 +9803,13 @@
         <v>75</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9826,13 +9826,13 @@
         <v>75</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9849,13 +9849,13 @@
         <v>75</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -9872,13 +9872,13 @@
         <v>75</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -9895,13 +9895,13 @@
         <v>75</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -9918,13 +9918,13 @@
         <v>75</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -9941,13 +9941,13 @@
         <v>75</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -9964,13 +9964,13 @@
         <v>75</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9987,13 +9987,13 @@
         <v>75</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -10010,13 +10010,13 @@
         <v>75</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -10033,13 +10033,13 @@
         <v>75</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -10056,13 +10056,13 @@
         <v>75</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>461</v>
+        <v>952</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -10079,13 +10079,13 @@
         <v>76</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C284" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -10102,13 +10102,13 @@
         <v>76</v>
       </c>
       <c r="B285" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -10125,13 +10125,13 @@
         <v>76</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -10148,13 +10148,13 @@
         <v>77</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C287" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D287" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -10171,13 +10171,13 @@
         <v>77</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -10194,13 +10194,13 @@
         <v>77</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -10217,7 +10217,7 @@
         <v>77</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>187</v>
@@ -10237,16 +10237,16 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B291" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C291" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -10260,16 +10260,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>633</v>
+      </c>
+      <c r="B292" t="s">
+        <v>498</v>
+      </c>
+      <c r="C292" t="s">
+        <v>498</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B292" t="s">
-        <v>500</v>
-      </c>
-      <c r="C292" t="s">
-        <v>500</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -10283,16 +10283,16 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B293" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C293" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -10306,16 +10306,16 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B294" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C294" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -10329,16 +10329,16 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B295" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C295" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -10352,16 +10352,16 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B296" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C296" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -10375,16 +10375,16 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B297" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C297" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -10398,16 +10398,16 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B298" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C298" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -10421,16 +10421,16 @@
     </row>
     <row r="299" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B299" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C299" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -10444,16 +10444,16 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C300" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>78</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C301" t="s">
         <v>187</v>
@@ -10493,13 +10493,13 @@
         <v>79</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -10516,13 +10516,13 @@
         <v>79</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -10539,13 +10539,13 @@
         <v>79</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -10562,13 +10562,13 @@
         <v>79</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>79</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -10608,13 +10608,13 @@
         <v>79</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -10631,13 +10631,13 @@
         <v>79</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -10654,13 +10654,13 @@
         <v>79</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>79</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -10700,13 +10700,13 @@
         <v>80</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -10723,13 +10723,13 @@
         <v>80</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>80</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -10769,13 +10769,13 @@
         <v>80</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -10792,13 +10792,13 @@
         <v>80</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -10815,13 +10815,13 @@
         <v>80</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>80</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -10861,13 +10861,13 @@
         <v>80</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -10884,13 +10884,13 @@
         <v>80</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>81</v>
       </c>
       <c r="B320" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C320" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -10930,13 +10930,13 @@
         <v>81</v>
       </c>
       <c r="B321" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C321" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -10953,13 +10953,13 @@
         <v>81</v>
       </c>
       <c r="B322" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C322" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -10976,13 +10976,13 @@
         <v>81</v>
       </c>
       <c r="B323" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C323" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         <v>81</v>
       </c>
       <c r="B324" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C324" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -11022,13 +11022,13 @@
         <v>81</v>
       </c>
       <c r="B325" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C325" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -11045,13 +11045,13 @@
         <v>81</v>
       </c>
       <c r="B326" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C326" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>81</v>
       </c>
       <c r="B327" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C327" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>81</v>
       </c>
       <c r="B328" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C328" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -11114,13 +11114,13 @@
         <v>82</v>
       </c>
       <c r="B329" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C329" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -11137,13 +11137,13 @@
         <v>82</v>
       </c>
       <c r="B330" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C330" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -11160,13 +11160,13 @@
         <v>82</v>
       </c>
       <c r="B331" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C331" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -11183,13 +11183,13 @@
         <v>82</v>
       </c>
       <c r="B332" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C332" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -11206,13 +11206,13 @@
         <v>82</v>
       </c>
       <c r="B333" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C333" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -11229,13 +11229,13 @@
         <v>82</v>
       </c>
       <c r="B334" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C334" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -11252,13 +11252,13 @@
         <v>82</v>
       </c>
       <c r="B335" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C335" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -11275,13 +11275,13 @@
         <v>82</v>
       </c>
       <c r="B336" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C336" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -11298,13 +11298,13 @@
         <v>82</v>
       </c>
       <c r="B337" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C337" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -11321,13 +11321,13 @@
         <v>83</v>
       </c>
       <c r="B338" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C338" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -11344,13 +11344,13 @@
         <v>83</v>
       </c>
       <c r="B339" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C339" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -11367,13 +11367,13 @@
         <v>83</v>
       </c>
       <c r="B340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>83</v>
       </c>
       <c r="B341" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C341" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -11413,13 +11413,13 @@
         <v>83</v>
       </c>
       <c r="B342" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C342" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -11436,13 +11436,13 @@
         <v>83</v>
       </c>
       <c r="B343" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C343" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -11459,13 +11459,13 @@
         <v>83</v>
       </c>
       <c r="B344" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C344" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -11482,13 +11482,13 @@
         <v>83</v>
       </c>
       <c r="B345" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C345" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -11505,13 +11505,13 @@
         <v>83</v>
       </c>
       <c r="B346" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C346" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -11528,13 +11528,13 @@
         <v>84</v>
       </c>
       <c r="B347" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C347" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -11551,13 +11551,13 @@
         <v>84</v>
       </c>
       <c r="B348" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C348" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -11574,13 +11574,13 @@
         <v>84</v>
       </c>
       <c r="B349" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C349" t="s">
+        <v>692</v>
+      </c>
+      <c r="D349" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -11597,13 +11597,13 @@
         <v>84</v>
       </c>
       <c r="B350" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C350" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11620,13 +11620,13 @@
         <v>84</v>
       </c>
       <c r="B351" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C351" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -11643,13 +11643,13 @@
         <v>84</v>
       </c>
       <c r="B352" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C352" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -11666,13 +11666,13 @@
         <v>84</v>
       </c>
       <c r="B353" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C353" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -11689,13 +11689,13 @@
         <v>84</v>
       </c>
       <c r="B354" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C354" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -11712,13 +11712,13 @@
         <v>84</v>
       </c>
       <c r="B355" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C355" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -11732,16 +11732,16 @@
     </row>
     <row r="356" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E356" s="4">
         <v>1</v>
@@ -11755,16 +11755,16 @@
     </row>
     <row r="357" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E357" s="4">
         <v>1</v>
@@ -11778,16 +11778,16 @@
     </row>
     <row r="358" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E358" s="4">
         <v>1</v>
@@ -11801,16 +11801,16 @@
     </row>
     <row r="359" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E359" s="4">
         <v>1</v>
@@ -11824,16 +11824,16 @@
     </row>
     <row r="360" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E360" s="4">
         <v>1</v>
@@ -11847,16 +11847,16 @@
     </row>
     <row r="361" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E361" s="4">
         <v>1</v>
@@ -11870,16 +11870,16 @@
     </row>
     <row r="362" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E362" s="4">
         <v>1</v>
@@ -11893,16 +11893,16 @@
     </row>
     <row r="363" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E363" s="4">
         <v>1</v>
@@ -11916,16 +11916,16 @@
     </row>
     <row r="364" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E364" s="4">
         <v>1</v>
@@ -11939,16 +11939,16 @@
     </row>
     <row r="365" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E365" s="4">
         <v>1</v>
@@ -11962,16 +11962,16 @@
     </row>
     <row r="366" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E366" s="4">
         <v>1</v>
@@ -11985,16 +11985,16 @@
     </row>
     <row r="367" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E367" s="4">
         <v>1</v>
@@ -12008,16 +12008,16 @@
     </row>
     <row r="368" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E368" s="4">
         <v>1</v>
@@ -12031,16 +12031,16 @@
     </row>
     <row r="369" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E369" s="4">
         <v>1</v>
@@ -12054,16 +12054,16 @@
     </row>
     <row r="370" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E370" s="4">
         <v>1</v>
@@ -12077,16 +12077,16 @@
     </row>
     <row r="371" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E371" s="4">
         <v>1</v>
@@ -12100,16 +12100,16 @@
     </row>
     <row r="372" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E372" s="4">
         <v>1</v>
@@ -12123,16 +12123,16 @@
     </row>
     <row r="373" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E373" s="4">
         <v>1</v>
@@ -12146,16 +12146,16 @@
     </row>
     <row r="374" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E374" s="4">
         <v>1</v>
@@ -12169,16 +12169,16 @@
     </row>
     <row r="375" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E375" s="4">
         <v>0</v>
@@ -12192,16 +12192,16 @@
     </row>
     <row r="376" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C376" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D376" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="D376" s="6" t="s">
-        <v>724</v>
       </c>
       <c r="E376" s="4">
         <v>0</v>
@@ -12218,7 +12218,7 @@
         <v>85</v>
       </c>
       <c r="B377" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>187</v>
@@ -12241,7 +12241,7 @@
         <v>86</v>
       </c>
       <c r="B378" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>187</v>
@@ -12261,10 +12261,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B379" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>187</v>
@@ -12284,16 +12284,16 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>516</v>
+      </c>
+      <c r="B380" t="s">
         <v>518</v>
       </c>
-      <c r="B380" t="s">
-        <v>520</v>
-      </c>
       <c r="C380" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -12307,16 +12307,16 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>516</v>
+      </c>
+      <c r="B381" t="s">
         <v>518</v>
       </c>
-      <c r="B381" t="s">
-        <v>520</v>
-      </c>
       <c r="C381" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -12330,16 +12330,16 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>516</v>
+      </c>
+      <c r="B382" t="s">
         <v>518</v>
       </c>
-      <c r="B382" t="s">
-        <v>520</v>
-      </c>
       <c r="C382" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -12353,16 +12353,16 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>517</v>
+      </c>
+      <c r="B383" t="s">
         <v>519</v>
       </c>
-      <c r="B383" t="s">
-        <v>521</v>
-      </c>
       <c r="C383" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E383">
         <v>0</v>
@@ -12379,13 +12379,13 @@
         <v>87</v>
       </c>
       <c r="B384" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C384" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -12402,13 +12402,13 @@
         <v>87</v>
       </c>
       <c r="B385" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C385" t="s">
+        <v>727</v>
+      </c>
+      <c r="D385" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="D385" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -12425,13 +12425,13 @@
         <v>87</v>
       </c>
       <c r="B386" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C386" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -12445,16 +12445,16 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -12468,16 +12468,16 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -12491,16 +12491,16 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -12517,13 +12517,13 @@
         <v>88</v>
       </c>
       <c r="B390" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -12540,13 +12540,13 @@
         <v>89</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -12563,13 +12563,13 @@
         <v>89</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -12586,13 +12586,13 @@
         <v>90</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -12609,13 +12609,13 @@
         <v>90</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>91</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>187</v>
@@ -12652,16 +12652,16 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -12675,16 +12675,16 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -12701,7 +12701,7 @@
         <v>92</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>187</v>
@@ -12724,7 +12724,7 @@
         <v>93</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>187</v>
@@ -12747,7 +12747,7 @@
         <v>94</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>187</v>
@@ -12767,16 +12767,16 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -12790,16 +12790,16 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C402" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D402" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="D402" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>95</v>
       </c>
       <c r="B403" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>187</v>
@@ -12839,13 +12839,13 @@
         <v>96</v>
       </c>
       <c r="B404" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -12862,13 +12862,13 @@
         <v>97</v>
       </c>
       <c r="B405" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C405" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -12885,13 +12885,13 @@
         <v>97</v>
       </c>
       <c r="B406" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C406" t="s">
+        <v>743</v>
+      </c>
+      <c r="D406" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -12908,13 +12908,13 @@
         <v>97</v>
       </c>
       <c r="B407" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C407" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E407">
         <v>1</v>
@@ -12931,13 +12931,13 @@
         <v>98</v>
       </c>
       <c r="B408" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C408" t="s">
         <v>187</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -12954,13 +12954,13 @@
         <v>99</v>
       </c>
       <c r="B409" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C409" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -12977,13 +12977,13 @@
         <v>100</v>
       </c>
       <c r="B410" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C410" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -13000,13 +13000,13 @@
         <v>100</v>
       </c>
       <c r="B411" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C411" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E411" s="4">
         <v>0</v>
@@ -13023,13 +13023,13 @@
         <v>100</v>
       </c>
       <c r="B412" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C412" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E412" s="4">
         <v>0</v>
@@ -13046,13 +13046,13 @@
         <v>101</v>
       </c>
       <c r="B413" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C413" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E413" s="4">
         <v>0</v>
@@ -13069,13 +13069,13 @@
         <v>101</v>
       </c>
       <c r="B414" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C414" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E414" s="4">
         <v>0</v>
@@ -13092,13 +13092,13 @@
         <v>101</v>
       </c>
       <c r="B415" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C415" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E415" s="4">
         <v>0</v>
@@ -13115,13 +13115,13 @@
         <v>102</v>
       </c>
       <c r="B416" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C416" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E416" s="4">
         <v>0</v>
@@ -13138,13 +13138,13 @@
         <v>102</v>
       </c>
       <c r="B417" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C417" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E417" s="4">
         <v>0</v>
@@ -13161,13 +13161,13 @@
         <v>103</v>
       </c>
       <c r="B418" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C418" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E418" s="4">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>104</v>
       </c>
       <c r="B419" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>187</v>
@@ -13207,7 +13207,7 @@
         <v>105</v>
       </c>
       <c r="B420" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>187</v>
@@ -13230,7 +13230,7 @@
         <v>106</v>
       </c>
       <c r="B421" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>187</v>
@@ -13253,7 +13253,7 @@
         <v>107</v>
       </c>
       <c r="B422" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>187</v>
@@ -13276,13 +13276,13 @@
         <v>108</v>
       </c>
       <c r="B423" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C423" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E423">
         <v>0</v>
@@ -13299,13 +13299,13 @@
         <v>108</v>
       </c>
       <c r="B424" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C424" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -13322,13 +13322,13 @@
         <v>108</v>
       </c>
       <c r="B425" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C425" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -13345,13 +13345,13 @@
         <v>109</v>
       </c>
       <c r="B426" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C426" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E426">
         <v>0</v>
@@ -13368,13 +13368,13 @@
         <v>109</v>
       </c>
       <c r="B427" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C427" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -13391,13 +13391,13 @@
         <v>110</v>
       </c>
       <c r="B428" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C428" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -13414,13 +13414,13 @@
         <v>110</v>
       </c>
       <c r="B429" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C429" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -13434,16 +13434,16 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B430" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C430" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -13457,16 +13457,16 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B431" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C431" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -13480,16 +13480,16 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B432" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C432" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -13503,16 +13503,16 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B433" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C433" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -13529,7 +13529,7 @@
         <v>111</v>
       </c>
       <c r="B434" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C434" t="s">
         <v>187</v>
@@ -13549,16 +13549,16 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B435" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C435" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -13572,16 +13572,16 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B436" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C436" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -13595,16 +13595,16 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B437" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C437" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -13618,16 +13618,16 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B438" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C438" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -13644,13 +13644,13 @@
         <v>112</v>
       </c>
       <c r="B439" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C439" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -13667,13 +13667,13 @@
         <v>112</v>
       </c>
       <c r="B440" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C440" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -13687,16 +13687,16 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B441" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C441" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -13710,16 +13710,16 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B442" t="s">
+        <v>773</v>
+      </c>
+      <c r="C442" t="s">
+        <v>773</v>
+      </c>
+      <c r="D442" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="C442" t="s">
-        <v>775</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>777</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -13733,16 +13733,16 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B443" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C443" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E443">
         <v>1</v>
@@ -13759,13 +13759,13 @@
         <v>113</v>
       </c>
       <c r="B444" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C444" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -13782,13 +13782,13 @@
         <v>113</v>
       </c>
       <c r="B445" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C445" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -13805,13 +13805,13 @@
         <v>114</v>
       </c>
       <c r="B446" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -13828,13 +13828,13 @@
         <v>114</v>
       </c>
       <c r="B447" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C447" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="D447" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="D447" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -13851,7 +13851,7 @@
         <v>115</v>
       </c>
       <c r="B448" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C448" t="s">
         <v>187</v>
@@ -13874,13 +13874,13 @@
         <v>116</v>
       </c>
       <c r="B449" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C449" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -13897,13 +13897,13 @@
         <v>117</v>
       </c>
       <c r="B450" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C450" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -13920,13 +13920,13 @@
         <v>117</v>
       </c>
       <c r="B451" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C451" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -13943,13 +13943,13 @@
         <v>117</v>
       </c>
       <c r="B452" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C452" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -13966,13 +13966,13 @@
         <v>117</v>
       </c>
       <c r="B453" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C453" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -13989,13 +13989,13 @@
         <v>117</v>
       </c>
       <c r="B454" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C454" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -14009,16 +14009,16 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B455" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C455" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -14032,16 +14032,16 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B456" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C456" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -14055,16 +14055,16 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B457" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C457" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -14078,16 +14078,16 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B458" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C458" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -14101,16 +14101,16 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B459" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C459" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -14124,16 +14124,16 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B460" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C460" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -14147,16 +14147,16 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B461" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C461" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -14170,16 +14170,16 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B462" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C462" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -14193,16 +14193,16 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B463" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C463" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E463">
         <v>0</v>
@@ -14216,16 +14216,16 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B464" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C464" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E464">
         <v>0</v>
@@ -14242,7 +14242,7 @@
         <v>118</v>
       </c>
       <c r="B465" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C465" t="s">
         <v>187</v>
@@ -14265,13 +14265,13 @@
         <v>119</v>
       </c>
       <c r="B466" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C466" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -14288,13 +14288,13 @@
         <v>119</v>
       </c>
       <c r="B467" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C467" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E467">
         <v>0</v>
@@ -14311,13 +14311,13 @@
         <v>119</v>
       </c>
       <c r="B468" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C468" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -14334,13 +14334,13 @@
         <v>119</v>
       </c>
       <c r="B469" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C469" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E469">
         <v>0</v>
@@ -14357,13 +14357,13 @@
         <v>120</v>
       </c>
       <c r="B470" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C470" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -14377,16 +14377,16 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>804</v>
+      </c>
+      <c r="B471" t="s">
+        <v>187</v>
+      </c>
+      <c r="C471" t="s">
+        <v>805</v>
+      </c>
+      <c r="D471" s="6" t="s">
         <v>806</v>
-      </c>
-      <c r="B471" t="s">
-        <v>187</v>
-      </c>
-      <c r="C471" t="s">
-        <v>807</v>
-      </c>
-      <c r="D471" s="6" t="s">
-        <v>808</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -14403,13 +14403,13 @@
         <v>120</v>
       </c>
       <c r="B472" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C472" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E472">
         <v>0</v>
@@ -14423,16 +14423,16 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B473" t="s">
         <v>187</v>
       </c>
       <c r="C473" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -14449,13 +14449,13 @@
         <v>120</v>
       </c>
       <c r="B474" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C474" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -14469,16 +14469,16 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B475" t="s">
         <v>187</v>
       </c>
       <c r="C475" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -14495,13 +14495,13 @@
         <v>120</v>
       </c>
       <c r="B476" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C476" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -14515,16 +14515,16 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B477" t="s">
         <v>187</v>
       </c>
       <c r="C477" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E477">
         <v>0</v>
@@ -14541,13 +14541,13 @@
         <v>121</v>
       </c>
       <c r="B478" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C478" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -14564,13 +14564,13 @@
         <v>121</v>
       </c>
       <c r="B479" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C479" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -14587,13 +14587,13 @@
         <v>121</v>
       </c>
       <c r="B480" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C480" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -14610,13 +14610,13 @@
         <v>121</v>
       </c>
       <c r="B481" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C481" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -14633,13 +14633,13 @@
         <v>121</v>
       </c>
       <c r="B482" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C482" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -14653,16 +14653,16 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B483" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C483" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E483">
         <v>1</v>
@@ -14676,16 +14676,16 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B484" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C484" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E484">
         <v>1</v>
@@ -14699,16 +14699,16 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B485" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C485" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E485">
         <v>1</v>
@@ -14722,16 +14722,16 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B486" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C486" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E486">
         <v>1</v>
@@ -14745,16 +14745,16 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B487" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C487" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E487">
         <v>1</v>
@@ -14771,13 +14771,13 @@
         <v>122</v>
       </c>
       <c r="B488" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C488" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E488">
         <v>1</v>
@@ -14794,13 +14794,13 @@
         <v>122</v>
       </c>
       <c r="B489" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C489" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E489">
         <v>1</v>
@@ -14817,13 +14817,13 @@
         <v>122</v>
       </c>
       <c r="B490" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C490" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E490">
         <v>1</v>
@@ -14840,13 +14840,13 @@
         <v>122</v>
       </c>
       <c r="B491" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C491" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E491">
         <v>1</v>
@@ -14863,13 +14863,13 @@
         <v>122</v>
       </c>
       <c r="B492" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C492" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E492">
         <v>1</v>
@@ -14886,13 +14886,13 @@
         <v>123</v>
       </c>
       <c r="B493" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C493" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E493">
         <v>1</v>
@@ -14909,13 +14909,13 @@
         <v>123</v>
       </c>
       <c r="B494" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C494" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E494">
         <v>1</v>
@@ -14932,13 +14932,13 @@
         <v>123</v>
       </c>
       <c r="B495" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C495" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E495">
         <v>1</v>
@@ -14955,13 +14955,13 @@
         <v>123</v>
       </c>
       <c r="B496" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C496" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E496">
         <v>1</v>
@@ -14978,13 +14978,13 @@
         <v>123</v>
       </c>
       <c r="B497" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C497" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E497">
         <v>1</v>
@@ -15001,13 +15001,13 @@
         <v>124</v>
       </c>
       <c r="B498" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C498" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E498">
         <v>1</v>
@@ -15024,13 +15024,13 @@
         <v>124</v>
       </c>
       <c r="B499" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C499" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E499">
         <v>1</v>
@@ -15047,13 +15047,13 @@
         <v>124</v>
       </c>
       <c r="B500" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C500" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E500">
         <v>1</v>
@@ -15070,13 +15070,13 @@
         <v>124</v>
       </c>
       <c r="B501" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C501" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E501">
         <v>1</v>
@@ -15093,13 +15093,13 @@
         <v>124</v>
       </c>
       <c r="B502" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C502" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E502">
         <v>1</v>
@@ -15116,7 +15116,7 @@
         <v>125</v>
       </c>
       <c r="B503" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C503" t="s">
         <v>187</v>
@@ -15139,13 +15139,13 @@
         <v>126</v>
       </c>
       <c r="B504" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C504" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E504">
         <v>1</v>
@@ -15162,13 +15162,13 @@
         <v>126</v>
       </c>
       <c r="B505" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C505" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E505">
         <v>1</v>
@@ -15185,13 +15185,13 @@
         <v>126</v>
       </c>
       <c r="B506" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C506" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E506">
         <v>1</v>
@@ -15208,13 +15208,13 @@
         <v>126</v>
       </c>
       <c r="B507" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C507" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E507">
         <v>1</v>
@@ -15231,13 +15231,13 @@
         <v>126</v>
       </c>
       <c r="B508" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C508" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D508" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E508">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>127</v>
       </c>
       <c r="B509" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C509" t="s">
         <v>187</v>
@@ -15277,7 +15277,7 @@
         <v>128</v>
       </c>
       <c r="B510" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C510" t="s">
         <v>187</v>
@@ -15300,13 +15300,13 @@
         <v>129</v>
       </c>
       <c r="B511" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C511" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E511">
         <v>1</v>
@@ -15323,13 +15323,13 @@
         <v>129</v>
       </c>
       <c r="B512" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C512" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E512">
         <v>1</v>
@@ -15346,13 +15346,13 @@
         <v>129</v>
       </c>
       <c r="B513" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C513" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E513">
         <v>1</v>
@@ -15369,13 +15369,13 @@
         <v>129</v>
       </c>
       <c r="B514" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C514" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E514">
         <v>1</v>
@@ -15392,13 +15392,13 @@
         <v>129</v>
       </c>
       <c r="B515" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C515" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E515">
         <v>1</v>
@@ -15415,13 +15415,13 @@
         <v>130</v>
       </c>
       <c r="B516" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C516" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E516">
         <v>1</v>
@@ -15438,13 +15438,13 @@
         <v>130</v>
       </c>
       <c r="B517" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C517" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E517">
         <v>1</v>
@@ -15461,13 +15461,13 @@
         <v>130</v>
       </c>
       <c r="B518" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C518" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E518">
         <v>1</v>
@@ -15484,13 +15484,13 @@
         <v>130</v>
       </c>
       <c r="B519" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C519" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D519" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E519">
         <v>1</v>
@@ -15507,13 +15507,13 @@
         <v>130</v>
       </c>
       <c r="B520" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C520" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E520">
         <v>1</v>
@@ -15530,13 +15530,13 @@
         <v>131</v>
       </c>
       <c r="B521" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C521" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E521">
         <v>1</v>
@@ -15553,13 +15553,13 @@
         <v>131</v>
       </c>
       <c r="B522" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C522" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E522">
         <v>1</v>
@@ -15576,13 +15576,13 @@
         <v>131</v>
       </c>
       <c r="B523" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C523" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E523">
         <v>1</v>
@@ -15599,13 +15599,13 @@
         <v>131</v>
       </c>
       <c r="B524" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C524" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E524">
         <v>1</v>
@@ -15622,13 +15622,13 @@
         <v>131</v>
       </c>
       <c r="B525" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C525" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E525">
         <v>1</v>
@@ -15642,16 +15642,16 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B526" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C526" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -15665,16 +15665,16 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B527" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C527" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E527">
         <v>0</v>
@@ -15691,13 +15691,13 @@
         <v>132</v>
       </c>
       <c r="B528" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C528" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E528">
         <v>0</v>
@@ -15714,13 +15714,13 @@
         <v>132</v>
       </c>
       <c r="B529" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C529" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E529">
         <v>0</v>
@@ -15737,13 +15737,13 @@
         <v>133</v>
       </c>
       <c r="B530" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C530" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E530">
         <v>0</v>
@@ -15760,13 +15760,13 @@
         <v>133</v>
       </c>
       <c r="B531" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C531" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E531">
         <v>0</v>
@@ -15783,13 +15783,13 @@
         <v>133</v>
       </c>
       <c r="B532" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C532" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E532">
         <v>0</v>
@@ -15806,13 +15806,13 @@
         <v>133</v>
       </c>
       <c r="B533" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C533" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -15829,13 +15829,13 @@
         <v>134</v>
       </c>
       <c r="B534" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C534" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -15852,13 +15852,13 @@
         <v>134</v>
       </c>
       <c r="B535" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C535" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D535" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -15875,13 +15875,13 @@
         <v>134</v>
       </c>
       <c r="B536" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C536" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E536">
         <v>0</v>
@@ -15898,13 +15898,13 @@
         <v>134</v>
       </c>
       <c r="B537" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C537" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D537" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E537">
         <v>0</v>
@@ -15921,7 +15921,7 @@
         <v>135</v>
       </c>
       <c r="B538" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C538" t="s">
         <v>187</v>
@@ -15944,7 +15944,7 @@
         <v>136</v>
       </c>
       <c r="B539" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C539" t="s">
         <v>187</v>
@@ -15967,7 +15967,7 @@
         <v>137</v>
       </c>
       <c r="B540" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C540" t="s">
         <v>187</v>
@@ -15990,13 +15990,13 @@
         <v>138</v>
       </c>
       <c r="B541" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C541" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E541">
         <v>0</v>
@@ -16013,13 +16013,13 @@
         <v>138</v>
       </c>
       <c r="B542" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C542" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E542">
         <v>0</v>
@@ -16036,13 +16036,13 @@
         <v>139</v>
       </c>
       <c r="B543" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C543" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E543">
         <v>0</v>
@@ -16059,13 +16059,13 @@
         <v>139</v>
       </c>
       <c r="B544" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C544" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E544">
         <v>0</v>
@@ -16082,13 +16082,13 @@
         <v>139</v>
       </c>
       <c r="B545" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C545" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E545">
         <v>0</v>
@@ -16128,13 +16128,13 @@
         <v>141</v>
       </c>
       <c r="B547" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C547" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D547" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E547">
         <v>0</v>
@@ -16151,13 +16151,13 @@
         <v>141</v>
       </c>
       <c r="B548" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C548" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E548">
         <v>0</v>
@@ -16174,13 +16174,13 @@
         <v>141</v>
       </c>
       <c r="B549" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C549" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E549">
         <v>0</v>
@@ -16197,10 +16197,10 @@
         <v>142</v>
       </c>
       <c r="B550" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C550" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D550" s="6" t="s">
         <v>328</v>
@@ -16220,10 +16220,10 @@
         <v>142</v>
       </c>
       <c r="B551" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C551" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D551" s="6" t="s">
         <v>329</v>
@@ -16243,10 +16243,10 @@
         <v>142</v>
       </c>
       <c r="B552" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C552" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D552" s="6" t="s">
         <v>330</v>
@@ -16266,10 +16266,10 @@
         <v>142</v>
       </c>
       <c r="B553" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C553" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D553" s="6" t="s">
         <v>331</v>
@@ -16289,10 +16289,10 @@
         <v>142</v>
       </c>
       <c r="B554" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C554" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D554" s="6" t="s">
         <v>332</v>
@@ -16312,10 +16312,10 @@
         <v>142</v>
       </c>
       <c r="B555" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C555" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D555" s="6" t="s">
         <v>333</v>
@@ -16335,7 +16335,7 @@
         <v>143</v>
       </c>
       <c r="B556" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C556" t="s">
         <v>187</v>
@@ -16358,13 +16358,13 @@
         <v>144</v>
       </c>
       <c r="B557" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C557" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E557">
         <v>0</v>
@@ -16381,13 +16381,13 @@
         <v>144</v>
       </c>
       <c r="B558" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C558" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E558">
         <v>0</v>
@@ -16404,13 +16404,13 @@
         <v>144</v>
       </c>
       <c r="B559" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C559" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E559">
         <v>0</v>
@@ -16427,13 +16427,13 @@
         <v>144</v>
       </c>
       <c r="B560" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C560" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E560">
         <v>0</v>
@@ -16450,13 +16450,13 @@
         <v>144</v>
       </c>
       <c r="B561" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C561" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E561">
         <v>0</v>
@@ -16473,13 +16473,13 @@
         <v>144</v>
       </c>
       <c r="B562" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C562" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E562">
         <v>0</v>
@@ -16496,13 +16496,13 @@
         <v>144</v>
       </c>
       <c r="B563" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C563" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D563" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E563">
         <v>0</v>
@@ -16519,13 +16519,13 @@
         <v>144</v>
       </c>
       <c r="B564" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C564" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E564">
         <v>0</v>
@@ -16542,13 +16542,13 @@
         <v>144</v>
       </c>
       <c r="B565" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C565" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -16565,7 +16565,7 @@
         <v>145</v>
       </c>
       <c r="B566" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C566" t="s">
         <v>187</v>
@@ -16588,13 +16588,13 @@
         <v>146</v>
       </c>
       <c r="B567" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C567" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E567">
         <v>1</v>
@@ -16611,13 +16611,13 @@
         <v>147</v>
       </c>
       <c r="B568" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C568" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E568">
         <v>1</v>
@@ -16634,13 +16634,13 @@
         <v>147</v>
       </c>
       <c r="B569" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C569" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D569" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E569">
         <v>1</v>
@@ -16657,7 +16657,7 @@
         <v>148</v>
       </c>
       <c r="B570" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C570" t="s">
         <v>187</v>
@@ -16680,13 +16680,13 @@
         <v>149</v>
       </c>
       <c r="B571" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C571" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E571">
         <v>0</v>
@@ -16703,13 +16703,13 @@
         <v>149</v>
       </c>
       <c r="B572" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C572" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E572">
         <v>0</v>
@@ -16726,7 +16726,7 @@
         <v>150</v>
       </c>
       <c r="B573" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C573" t="s">
         <v>187</v>
@@ -16749,7 +16749,7 @@
         <v>151</v>
       </c>
       <c r="B574" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C574" t="s">
         <v>187</v>
@@ -16772,13 +16772,13 @@
         <v>152</v>
       </c>
       <c r="B575" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C575" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E575">
         <v>1</v>
@@ -16795,13 +16795,13 @@
         <v>152</v>
       </c>
       <c r="B576" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C576" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E576">
         <v>0</v>
@@ -16818,13 +16818,13 @@
         <v>152</v>
       </c>
       <c r="B577" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C577" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E577">
         <v>0</v>
@@ -16841,13 +16841,13 @@
         <v>152</v>
       </c>
       <c r="B578" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C578" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E578">
         <v>1</v>
@@ -16864,13 +16864,13 @@
         <v>153</v>
       </c>
       <c r="B579" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C579" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E579">
         <v>1</v>
@@ -16887,13 +16887,13 @@
         <v>153</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D580" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E580" s="9"/>
       <c r="F580" s="9"/>
@@ -16904,13 +16904,13 @@
         <v>154</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C581" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D581" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E581" s="9">
         <v>1</v>
@@ -16927,13 +16927,13 @@
         <v>154</v>
       </c>
       <c r="B582" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C582" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D582" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E582" s="9">
         <v>1</v>
@@ -16950,13 +16950,13 @@
         <v>154</v>
       </c>
       <c r="B583" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C583" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="D583" s="13" t="s">
         <v>870</v>
-      </c>
-      <c r="D583" s="13" t="s">
-        <v>872</v>
       </c>
       <c r="E583" s="9">
         <v>1</v>
@@ -16973,13 +16973,13 @@
         <v>154</v>
       </c>
       <c r="B584" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D584" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E584" s="9">
         <v>1</v>
@@ -16996,7 +16996,7 @@
         <v>155</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C585" s="9" t="s">
         <v>187</v>
@@ -17019,13 +17019,13 @@
         <v>156</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C586" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D586" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E586" s="9">
         <v>0</v>
@@ -17042,13 +17042,13 @@
         <v>156</v>
       </c>
       <c r="B587" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C587" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D587" s="13" t="s">
         <v>874</v>
-      </c>
-      <c r="D587" s="13" t="s">
-        <v>876</v>
       </c>
       <c r="E587" s="9">
         <v>0</v>
@@ -17065,13 +17065,13 @@
         <v>156</v>
       </c>
       <c r="B588" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C588" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D588" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E588" s="9">
         <v>1</v>
@@ -17088,13 +17088,13 @@
         <v>157</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C589" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D589" s="13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E589" s="15">
         <v>1</v>
@@ -17111,13 +17111,13 @@
         <v>157</v>
       </c>
       <c r="B590" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C590" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="D590" s="13" t="s">
         <v>878</v>
-      </c>
-      <c r="D590" s="13" t="s">
-        <v>880</v>
       </c>
       <c r="E590" s="15">
         <v>1</v>
@@ -17134,13 +17134,13 @@
         <v>157</v>
       </c>
       <c r="B591" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C591" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D591" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E591" s="15">
         <v>1</v>
@@ -17157,10 +17157,10 @@
         <v>157</v>
       </c>
       <c r="B592" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C592" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D592" s="13" t="s">
         <v>246</v>
@@ -17180,13 +17180,13 @@
         <v>157</v>
       </c>
       <c r="B593" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C593" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D593" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E593" s="15">
         <v>1</v>
@@ -17203,10 +17203,10 @@
         <v>157</v>
       </c>
       <c r="B594" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C594" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D594" s="13" t="s">
         <v>248</v>
@@ -17226,10 +17226,10 @@
         <v>157</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C595" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D595" s="13" t="s">
         <v>249</v>
@@ -17249,10 +17249,10 @@
         <v>157</v>
       </c>
       <c r="B596" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C596" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D596" s="13" t="s">
         <v>250</v>
@@ -17272,10 +17272,10 @@
         <v>157</v>
       </c>
       <c r="B597" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C597" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D597" s="13" t="s">
         <v>251</v>
@@ -17295,10 +17295,10 @@
         <v>157</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C598" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D598" s="13" t="s">
         <v>252</v>
@@ -17318,7 +17318,7 @@
         <v>158</v>
       </c>
       <c r="B599" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C599" s="16" t="s">
         <v>187</v>
@@ -17341,7 +17341,7 @@
         <v>159</v>
       </c>
       <c r="B600" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C600" s="16" t="s">
         <v>187</v>
@@ -17364,7 +17364,7 @@
         <v>160</v>
       </c>
       <c r="B601" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C601" s="16" t="s">
         <v>187</v>
@@ -17387,13 +17387,13 @@
         <v>161</v>
       </c>
       <c r="B602" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C602" s="16" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E602">
         <v>1</v>
@@ -17410,13 +17410,13 @@
         <v>162</v>
       </c>
       <c r="B603" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C603" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E603">
         <v>1</v>
@@ -17433,13 +17433,13 @@
         <v>162</v>
       </c>
       <c r="B604" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C604" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D604" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="D604" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="E604">
         <v>1</v>
@@ -17456,13 +17456,13 @@
         <v>162</v>
       </c>
       <c r="B605" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C605" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E605">
         <v>1</v>
@@ -17479,13 +17479,13 @@
         <v>162</v>
       </c>
       <c r="B606" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C606" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E606">
         <v>1</v>
@@ -17502,13 +17502,13 @@
         <v>162</v>
       </c>
       <c r="B607" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C607" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D607" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E607">
         <v>1</v>
@@ -17525,13 +17525,13 @@
         <v>162</v>
       </c>
       <c r="B608" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C608" s="16" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D608" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E608">
         <v>1</v>
@@ -17549,10 +17549,10 @@
       </c>
       <c r="B609" s="17"/>
       <c r="C609" s="18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D609" s="19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E609" s="17">
         <v>0</v>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B610" s="17"/>
       <c r="C610" s="18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D610" s="19" t="s">
         <v>214</v>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="B611" s="17"/>
       <c r="C611" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D611" s="19" t="s">
         <v>216</v>
@@ -17611,13 +17611,13 @@
         <v>164</v>
       </c>
       <c r="B612" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D612" s="21" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E612" s="22">
         <v>1</v>
@@ -17634,10 +17634,10 @@
         <v>164</v>
       </c>
       <c r="B613" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C613" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D613" s="21" t="s">
         <v>214</v>
@@ -17657,10 +17657,10 @@
         <v>164</v>
       </c>
       <c r="B614" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C614" s="20" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D614" s="21" t="s">
         <v>216</v>
@@ -17680,13 +17680,13 @@
         <v>165</v>
       </c>
       <c r="B615" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C615" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D615" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E615">
         <v>0</v>
@@ -17703,10 +17703,10 @@
         <v>165</v>
       </c>
       <c r="B616" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C616" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D616" s="6" t="s">
         <v>190</v>
@@ -17726,10 +17726,10 @@
         <v>166</v>
       </c>
       <c r="B617" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C617" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D617" s="6" t="s">
         <v>229</v>
@@ -17749,10 +17749,10 @@
         <v>166</v>
       </c>
       <c r="B618" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C618" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D618" s="6" t="s">
         <v>307</v>
@@ -17772,10 +17772,10 @@
         <v>166</v>
       </c>
       <c r="B619" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C619" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D619" s="6" t="s">
         <v>306</v>
@@ -17795,7 +17795,7 @@
         <v>167</v>
       </c>
       <c r="B620" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C620" s="20" t="s">
         <v>187</v>
@@ -17818,7 +17818,7 @@
         <v>168</v>
       </c>
       <c r="B621" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C621" s="20" t="s">
         <v>187</v>
@@ -17864,13 +17864,13 @@
         <v>170</v>
       </c>
       <c r="B623" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E623">
         <v>0</v>
@@ -17887,13 +17887,13 @@
         <v>170</v>
       </c>
       <c r="B624" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C624" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="D624" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="D624" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="E624">
         <v>0</v>
@@ -17910,13 +17910,13 @@
         <v>170</v>
       </c>
       <c r="B625" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D625" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E625">
         <v>0</v>
@@ -17933,13 +17933,13 @@
         <v>170</v>
       </c>
       <c r="B626" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C626" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E626">
         <v>0</v>
@@ -17956,13 +17956,13 @@
         <v>170</v>
       </c>
       <c r="B627" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C627" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D627" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E627">
         <v>0</v>
@@ -17979,13 +17979,13 @@
         <v>170</v>
       </c>
       <c r="B628" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C628" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E628">
         <v>0</v>
@@ -18002,13 +18002,13 @@
         <v>170</v>
       </c>
       <c r="B629" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C629" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D629" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E629">
         <v>0</v>
@@ -18025,13 +18025,13 @@
         <v>170</v>
       </c>
       <c r="B630" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C630" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E630">
         <v>0</v>
@@ -18048,13 +18048,13 @@
         <v>170</v>
       </c>
       <c r="B631" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D631" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E631">
         <v>0</v>
@@ -18071,13 +18071,13 @@
         <v>170</v>
       </c>
       <c r="B632" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D632" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E632">
         <v>0</v>
@@ -18094,13 +18094,13 @@
         <v>170</v>
       </c>
       <c r="B633" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C633" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D633" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E633">
         <v>0</v>
@@ -18117,7 +18117,7 @@
         <v>171</v>
       </c>
       <c r="B634" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C634" s="8" t="s">
         <v>187</v>
@@ -18140,13 +18140,13 @@
         <v>172</v>
       </c>
       <c r="B635" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C635" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E635">
         <v>0</v>
@@ -18163,13 +18163,13 @@
         <v>172</v>
       </c>
       <c r="B636" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C636" t="s">
+        <v>910</v>
+      </c>
+      <c r="D636" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="D636" s="6" t="s">
-        <v>914</v>
       </c>
       <c r="E636">
         <v>0</v>
@@ -18186,13 +18186,13 @@
         <v>172</v>
       </c>
       <c r="B637" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C637" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D637" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E637">
         <v>0</v>
@@ -18209,13 +18209,13 @@
         <v>172</v>
       </c>
       <c r="B638" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C638" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E638">
         <v>0</v>
@@ -18232,13 +18232,13 @@
         <v>173</v>
       </c>
       <c r="B639" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C639" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D639" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E639">
         <v>1</v>
@@ -18255,13 +18255,13 @@
         <v>173</v>
       </c>
       <c r="B640" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C640" t="s">
+        <v>915</v>
+      </c>
+      <c r="D640" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="D640" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="E640">
         <v>1</v>
@@ -18278,13 +18278,13 @@
         <v>173</v>
       </c>
       <c r="B641" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C641" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D641" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E641">
         <v>1</v>
@@ -18301,13 +18301,13 @@
         <v>173</v>
       </c>
       <c r="B642" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C642" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E642">
         <v>1</v>
@@ -18324,13 +18324,13 @@
         <v>173</v>
       </c>
       <c r="B643" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C643" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D643" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E643">
         <v>1</v>
@@ -18347,13 +18347,13 @@
         <v>173</v>
       </c>
       <c r="B644" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C644" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D644" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E644">
         <v>1</v>
@@ -18370,13 +18370,13 @@
         <v>173</v>
       </c>
       <c r="B645" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C645" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D645" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E645">
         <v>1</v>
@@ -18393,13 +18393,13 @@
         <v>173</v>
       </c>
       <c r="B646" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C646" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E646">
         <v>1</v>
@@ -18416,13 +18416,13 @@
         <v>174</v>
       </c>
       <c r="B647" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C647" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D647" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E647">
         <v>1</v>
@@ -18439,13 +18439,13 @@
         <v>174</v>
       </c>
       <c r="B648" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C648" t="s">
+        <v>915</v>
+      </c>
+      <c r="D648" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="D648" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="E648">
         <v>1</v>
@@ -18462,13 +18462,13 @@
         <v>174</v>
       </c>
       <c r="B649" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C649" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D649" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E649">
         <v>1</v>
@@ -18485,13 +18485,13 @@
         <v>174</v>
       </c>
       <c r="B650" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C650" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D650" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E650">
         <v>1</v>
@@ -18508,13 +18508,13 @@
         <v>174</v>
       </c>
       <c r="B651" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C651" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D651" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E651">
         <v>1</v>
@@ -18531,13 +18531,13 @@
         <v>174</v>
       </c>
       <c r="B652" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C652" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D652" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E652">
         <v>1</v>
@@ -18554,13 +18554,13 @@
         <v>174</v>
       </c>
       <c r="B653" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C653" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D653" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E653">
         <v>1</v>
@@ -18577,13 +18577,13 @@
         <v>174</v>
       </c>
       <c r="B654" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C654" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D654" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E654">
         <v>1</v>
@@ -18600,13 +18600,13 @@
         <v>175</v>
       </c>
       <c r="B655" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C655" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D655" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E655">
         <v>1</v>
@@ -18623,13 +18623,13 @@
         <v>175</v>
       </c>
       <c r="B656" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C656" t="s">
+        <v>915</v>
+      </c>
+      <c r="D656" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="D656" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="E656">
         <v>1</v>
@@ -18646,13 +18646,13 @@
         <v>175</v>
       </c>
       <c r="B657" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C657" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D657" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E657">
         <v>1</v>
@@ -18669,13 +18669,13 @@
         <v>175</v>
       </c>
       <c r="B658" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C658" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D658" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E658">
         <v>1</v>
@@ -18692,13 +18692,13 @@
         <v>175</v>
       </c>
       <c r="B659" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C659" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D659" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E659">
         <v>1</v>
@@ -18715,13 +18715,13 @@
         <v>175</v>
       </c>
       <c r="B660" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C660" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D660" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E660">
         <v>1</v>
@@ -18738,13 +18738,13 @@
         <v>175</v>
       </c>
       <c r="B661" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C661" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D661" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E661">
         <v>1</v>
@@ -18761,13 +18761,13 @@
         <v>175</v>
       </c>
       <c r="B662" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C662" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D662" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E662">
         <v>1</v>
@@ -18784,13 +18784,13 @@
         <v>176</v>
       </c>
       <c r="B663" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C663" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D663" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E663">
         <v>0</v>
@@ -18807,7 +18807,7 @@
         <v>177</v>
       </c>
       <c r="B664" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C664" t="s">
         <v>187</v>
@@ -18830,13 +18830,13 @@
         <v>178</v>
       </c>
       <c r="B665" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C665" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D665" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E665">
         <v>1</v>
@@ -18853,13 +18853,13 @@
         <v>178</v>
       </c>
       <c r="B666" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C666" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D666" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E666">
         <v>1</v>
@@ -18876,13 +18876,13 @@
         <v>178</v>
       </c>
       <c r="B667" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C667" t="s">
+        <v>924</v>
+      </c>
+      <c r="D667" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="D667" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="E667">
         <v>1</v>
@@ -18899,13 +18899,13 @@
         <v>178</v>
       </c>
       <c r="B668" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C668" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D668" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E668">
         <v>1</v>
@@ -18922,13 +18922,13 @@
         <v>178</v>
       </c>
       <c r="B669" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C669" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D669" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E669">
         <v>1</v>
@@ -18945,13 +18945,13 @@
         <v>178</v>
       </c>
       <c r="B670" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C670" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D670" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E670">
         <v>1</v>
@@ -18968,13 +18968,13 @@
         <v>178</v>
       </c>
       <c r="B671" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C671" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D671" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E671">
         <v>1</v>
@@ -18991,13 +18991,13 @@
         <v>178</v>
       </c>
       <c r="B672" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C672" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D672" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E672">
         <v>1</v>
@@ -19014,13 +19014,13 @@
         <v>178</v>
       </c>
       <c r="B673" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C673" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D673" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E673">
         <v>1</v>
@@ -19037,13 +19037,13 @@
         <v>179</v>
       </c>
       <c r="B674" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C674" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D674" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E674">
         <v>1</v>
@@ -19060,13 +19060,13 @@
         <v>179</v>
       </c>
       <c r="B675" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C675" t="s">
+        <v>933</v>
+      </c>
+      <c r="D675" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="D675" s="6" t="s">
-        <v>937</v>
       </c>
       <c r="E675">
         <v>1</v>
@@ -19083,13 +19083,13 @@
         <v>179</v>
       </c>
       <c r="B676" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C676" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D676" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E676">
         <v>1</v>
@@ -19106,13 +19106,13 @@
         <v>179</v>
       </c>
       <c r="B677" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C677" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D677" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E677">
         <v>1</v>
@@ -19129,13 +19129,13 @@
         <v>179</v>
       </c>
       <c r="B678" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C678" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D678" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E678">
         <v>1</v>
@@ -19152,13 +19152,13 @@
         <v>179</v>
       </c>
       <c r="B679" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C679" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D679" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E679">
         <v>1</v>
@@ -19175,7 +19175,7 @@
         <v>180</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C680" t="s">
         <v>403</v>
@@ -19198,7 +19198,7 @@
         <v>180</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C681" t="s">
         <v>403</v>
@@ -19221,13 +19221,13 @@
         <v>180</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C682" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D682" s="6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E682">
         <v>1</v>
@@ -19244,13 +19244,13 @@
         <v>180</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C683" t="s">
+        <v>940</v>
+      </c>
+      <c r="D683" s="6" t="s">
         <v>942</v>
-      </c>
-      <c r="D683" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="E683">
         <v>1</v>
@@ -19267,13 +19267,13 @@
         <v>180</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C684" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D684" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E684">
         <v>1</v>
@@ -19290,13 +19290,13 @@
         <v>180</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C685" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D685" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E685">
         <v>1</v>
@@ -19313,13 +19313,13 @@
         <v>180</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C686" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D686" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E686">
         <v>1</v>
@@ -19336,7 +19336,7 @@
         <v>181</v>
       </c>
       <c r="B687" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C687" t="s">
         <v>187</v>
@@ -19359,13 +19359,13 @@
         <v>182</v>
       </c>
       <c r="B688" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C688" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D688" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E688">
         <v>1</v>
@@ -19382,13 +19382,13 @@
         <v>182</v>
       </c>
       <c r="B689" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C689" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D689" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E689">
         <v>1</v>
@@ -19405,13 +19405,13 @@
         <v>182</v>
       </c>
       <c r="B690" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C690" t="s">
+        <v>924</v>
+      </c>
+      <c r="D690" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="D690" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="E690">
         <v>1</v>
@@ -19428,13 +19428,13 @@
         <v>182</v>
       </c>
       <c r="B691" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C691" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D691" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E691">
         <v>1</v>
@@ -19451,13 +19451,13 @@
         <v>182</v>
       </c>
       <c r="B692" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C692" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D692" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E692">
         <v>1</v>
@@ -19474,13 +19474,13 @@
         <v>182</v>
       </c>
       <c r="B693" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C693" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D693" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E693">
         <v>1</v>
@@ -19497,13 +19497,13 @@
         <v>182</v>
       </c>
       <c r="B694" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C694" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D694" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E694">
         <v>1</v>
@@ -19520,13 +19520,13 @@
         <v>182</v>
       </c>
       <c r="B695" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C695" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D695" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E695">
         <v>1</v>
@@ -19543,13 +19543,13 @@
         <v>182</v>
       </c>
       <c r="B696" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C696" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D696" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E696">
         <v>1</v>
@@ -19566,13 +19566,13 @@
         <v>183</v>
       </c>
       <c r="B697" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C697" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D697" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E697">
         <v>1</v>
@@ -19589,13 +19589,13 @@
         <v>183</v>
       </c>
       <c r="B698" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C698" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D698" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E698">
         <v>1</v>
@@ -19612,13 +19612,13 @@
         <v>183</v>
       </c>
       <c r="B699" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C699" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D699" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E699">
         <v>1</v>
@@ -19635,13 +19635,13 @@
         <v>184</v>
       </c>
       <c r="B700" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C700" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D700" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E700">
         <v>1</v>
@@ -19658,13 +19658,13 @@
         <v>184</v>
       </c>
       <c r="B701" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C701" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D701" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E701">
         <v>1</v>
@@ -19681,13 +19681,13 @@
         <v>184</v>
       </c>
       <c r="B702" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C702" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D702" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E702">
         <v>1</v>
@@ -19704,7 +19704,7 @@
         <v>185</v>
       </c>
       <c r="B703" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C703" t="s">
         <v>187</v>
@@ -19863,19 +19863,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
